--- a/mbs-EP-v.1.0.2/Excel Files/mcpherson_2d/mcpherson_2d.xlsx
+++ b/mbs-EP-v.1.0.2/Excel Files/mcpherson_2d/mcpherson_2d.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.1\Excel Files\mcpherson_2d\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.2\Excel Files\mcpherson_2d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394D0DBE-FB29-4CB1-9F11-6287BFD417D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463B01CC-A2CF-41FA-B13C-E43BA838061F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="264">
   <si>
     <t>Mass</t>
   </si>
@@ -188,18 +188,12 @@
     <t>spj (global)</t>
   </si>
   <si>
-    <t>Function</t>
-  </si>
-  <si>
     <t>Direction</t>
   </si>
   <si>
     <t>Vector Direction/Rotational Axis</t>
   </si>
   <si>
-    <t>Function Type (Sinusoidal or Polynomial)</t>
-  </si>
-  <si>
     <t>wx</t>
   </si>
   <si>
@@ -272,9 +266,6 @@
     <t>Force Point of Application (Abs Frame)</t>
   </si>
   <si>
-    <t>sj</t>
-  </si>
-  <si>
     <t>Torsional Spring - Vectors si and sj are used to measure the angle of the torsion spring</t>
   </si>
   <si>
@@ -290,9 +281,6 @@
     <t>Gravity Magnitude</t>
   </si>
   <si>
-    <t>Spring Axis</t>
-  </si>
-  <si>
     <t>Dyn</t>
   </si>
   <si>
@@ -389,9 +377,6 @@
     <t>Linear - Damping Coefficient</t>
   </si>
   <si>
-    <t>@(x) Non Linear Force Function (x-Displ)</t>
-  </si>
-  <si>
     <t>Function 1</t>
   </si>
   <si>
@@ -399,9 +384,6 @@
   </si>
   <si>
     <t>Function 3</t>
-  </si>
-  <si>
-    <t>@(dx) Non Linear Force Function (dx-Vel)</t>
   </si>
   <si>
     <t>Numb of Functions</t>
@@ -554,9 +536,6 @@
     <t>spj</t>
   </si>
   <si>
-    <t xml:space="preserve"> @(t) Function</t>
-  </si>
-  <si>
     <t>Force Element</t>
   </si>
   <si>
@@ -852,12 +831,6 @@
     <t>MKS</t>
   </si>
   <si>
-    <t>Sinusoidal</t>
-  </si>
-  <si>
-    <t>@(t)-(0.01*exp(-3*t))*cos(30*t)</t>
-  </si>
-  <si>
     <t>Animation</t>
   </si>
   <si>
@@ -865,6 +838,48 @@
   </si>
   <si>
     <t>Point</t>
+  </si>
+  <si>
+    <t>Functions written as '@(x) Func(x)</t>
+  </si>
+  <si>
+    <t>Displacement Function</t>
+  </si>
+  <si>
+    <t>Velocity Function</t>
+  </si>
+  <si>
+    <t>Acceleration Function</t>
+  </si>
+  <si>
+    <t>@(x) -(0.01*exp(-3*t)*cos(30*t))</t>
+  </si>
+  <si>
+    <t>@(x)(0.03*exp(-3*t)*cos(30*t))</t>
+  </si>
+  <si>
+    <t>@(x)-(0.09*exp(-3*t)*cos(30*t))</t>
+  </si>
+  <si>
+    <t>@(x) Non Linear Force Function (x-Displ) [Write as '@(x) func(x)]</t>
+  </si>
+  <si>
+    <t>@(dx) Non Linear Force Function (dx-Vel) [Write as '@(x) func(x)]</t>
+  </si>
+  <si>
+    <t>@(x) Non Linear Force Function (x-Angle of Torsion) [Write as '@(x) func(x)]</t>
+  </si>
+  <si>
+    <t>sp ( Spring Position REV)</t>
+  </si>
+  <si>
+    <t>Spring Axis (s)</t>
+  </si>
+  <si>
+    <t>si (vector to take body i orientation)</t>
+  </si>
+  <si>
+    <t>sj(vector to take body j orientation)</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1177,15 +1192,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1198,19 +1207,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1271,97 +1271,112 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1373,19 +1388,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1397,30 +1415,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1433,33 +1427,80 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1913,923 +1954,940 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69"/>
+      <c r="J2" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="66"/>
+      <c r="D3" s="41">
+        <v>5</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="K3" s="71"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="N3" s="71"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q3" s="36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="66"/>
+      <c r="D4" s="41">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="L4" s="85"/>
+      <c r="M4" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="N4" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="O4" s="82"/>
+      <c r="P4" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q4" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="66"/>
+      <c r="D5" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="J2" s="87" t="s">
-        <v>158</v>
-      </c>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="46">
+      <c r="J5" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="L5" s="85"/>
+      <c r="M5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="N5" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="82"/>
+      <c r="P5" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q5" s="51" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="66"/>
+      <c r="D6" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="L6" s="85"/>
+      <c r="M6" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="N6" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="O6" s="82"/>
+      <c r="P6" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q6" s="51" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="66"/>
+      <c r="D7" s="41">
+        <v>-9.8064999999999998</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="72" t="s">
+      <c r="L7" s="85"/>
+      <c r="M7" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="82"/>
+      <c r="P7" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q7" s="51" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="66"/>
+      <c r="D8" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" s="85"/>
+      <c r="M8" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="82"/>
+      <c r="P8" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q8" s="51" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="66"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" s="85"/>
+      <c r="M9" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="82"/>
+      <c r="P9" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q9" s="51" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J10" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="K3" s="73"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="72" t="s">
+      <c r="K10" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" s="85"/>
+      <c r="M10" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="82"/>
+      <c r="P10" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q10" s="51" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J11" s="44"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="N11" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" s="82"/>
+      <c r="P11" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q11" s="51" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="N3" s="73"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q3" s="41" t="s">
+      <c r="N12" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="O12" s="82"/>
+      <c r="P12" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q12" s="51" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="64"/>
+      <c r="D13" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="82"/>
+      <c r="P13" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q13" s="51" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="64"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="N14" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="O14" s="82"/>
+      <c r="P14" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q14" s="51" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="64"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="J15" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15" s="71"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="82"/>
+      <c r="P15" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q15" s="51" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="64"/>
+      <c r="D16" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="E16" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="J16" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="L16" s="85"/>
+      <c r="M16" s="36" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="46">
-        <v>0.01</v>
-      </c>
-      <c r="E4" s="46" t="s">
+      <c r="N16" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="O16" s="82"/>
+      <c r="P16" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q16" s="51" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="64"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="J17" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="85"/>
+      <c r="M17" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="N17" s="71"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q17" s="51" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="64"/>
+      <c r="D18" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="E18" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="J18" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="K18" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="L18" s="85"/>
+      <c r="M18" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="N18" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="O18" s="82"/>
+      <c r="P18" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q18" s="51" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="64"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="J19" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="K19" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="K4" s="41" t="s">
+      <c r="L19" s="85"/>
+      <c r="M19" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="N19" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="O19" s="82"/>
+      <c r="P19" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q19" s="51" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="64" t="s">
+        <v>247</v>
+      </c>
+      <c r="C20" s="64"/>
+      <c r="D20" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="E20" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="J20" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="N4" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="O4" s="84"/>
-      <c r="P4" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q4" s="56" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="46" t="s">
+      <c r="K20" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="L20" s="85"/>
+      <c r="M20" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="N20" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="L5" s="70"/>
-      <c r="M5" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="N5" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5" s="84"/>
-      <c r="P5" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q5" s="56" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="K6" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="L6" s="70"/>
-      <c r="M6" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="N6" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="O6" s="84"/>
-      <c r="P6" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q6" s="56" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="46">
-        <v>-9.8064999999999998</v>
-      </c>
-      <c r="E7" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="J7" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="K7" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="70"/>
-      <c r="M7" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="84"/>
-      <c r="P7" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q7" s="56" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="46" t="s">
-        <v>253</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="J8" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="K8" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="L8" s="70"/>
-      <c r="M8" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" s="84"/>
-      <c r="P8" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q8" s="56" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="67" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="J9" s="41" t="s">
+      <c r="O20" s="82"/>
+      <c r="P20" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q20" s="51" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="64"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="J21" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="K21" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="K9" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="L9" s="70"/>
-      <c r="M9" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="N9" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="O9" s="84"/>
-      <c r="P9" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q9" s="56" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J10" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="K10" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="L10" s="70"/>
-      <c r="M10" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="O10" s="84"/>
-      <c r="P10" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q10" s="56" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J11" s="49"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="41" t="s">
+      <c r="L21" s="85"/>
+      <c r="M21" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="N21" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="O21" s="82"/>
+      <c r="P21" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q21" s="51" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="87" t="s">
         <v>138</v>
       </c>
-      <c r="N11" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="O11" s="84"/>
-      <c r="P11" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q11" s="56" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="87" t="s">
-        <v>142</v>
-      </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="N12" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="O12" s="84"/>
-      <c r="P12" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q12" s="56" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="65" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="64" t="s">
-        <v>249</v>
-      </c>
-      <c r="E13" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="N13" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="O13" s="84"/>
-      <c r="P13" s="45" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q13" s="56" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="65" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="N14" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="O14" s="84"/>
-      <c r="P14" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q14" s="56" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="65" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="J15" s="72" t="s">
-        <v>97</v>
-      </c>
-      <c r="K15" s="73"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="N15" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="O15" s="84"/>
-      <c r="P15" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q15" s="56" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="65" t="s">
-        <v>149</v>
-      </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="64" t="s">
-        <v>249</v>
-      </c>
-      <c r="E16" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="J16" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="K16" s="41" t="s">
+      <c r="C22" s="87"/>
+      <c r="D22" s="58">
+        <v>2</v>
+      </c>
+      <c r="E22" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22" s="83"/>
+      <c r="H22" s="64"/>
+      <c r="J22" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="K22" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="L16" s="70"/>
-      <c r="M16" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="N16" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="O16" s="84"/>
-      <c r="P16" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q16" s="56" t="s">
+      <c r="L22" s="86"/>
+      <c r="M22" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="N22" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="O22" s="82"/>
+      <c r="P22" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q22" s="51" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="58">
+        <v>4</v>
+      </c>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="64"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="40" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="65" t="s">
-        <v>148</v>
-      </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="J17" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="L17" s="70"/>
-      <c r="M17" s="72" t="s">
-        <v>153</v>
-      </c>
-      <c r="N17" s="73"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q17" s="56" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="64" t="s">
-        <v>249</v>
-      </c>
-      <c r="E18" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="J18" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="K18" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="L18" s="70"/>
-      <c r="M18" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="N18" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="O18" s="84"/>
-      <c r="P18" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q18" s="56" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="J19" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="K19" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="70"/>
-      <c r="M19" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="N19" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="O19" s="84"/>
-      <c r="P19" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q19" s="56" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="65" t="s">
-        <v>256</v>
-      </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="64" t="s">
-        <v>249</v>
-      </c>
-      <c r="E20" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="J20" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="K20" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="L20" s="70"/>
-      <c r="M20" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="N20" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="O20" s="84"/>
-      <c r="P20" s="41" t="s">
+      <c r="Q23" s="52" t="s">
         <v>197</v>
       </c>
-      <c r="Q20" s="56" t="s">
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="64"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q24" s="52" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="64"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="82"/>
+      <c r="P25" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q25" s="52" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="64"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q26" s="52" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="65" t="s">
-        <v>257</v>
-      </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="J21" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="K21" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="L21" s="70"/>
-      <c r="M21" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="N21" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="O21" s="84"/>
-      <c r="P21" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q21" s="56" t="s">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="64"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="82"/>
+      <c r="P27" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q27" s="52" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="86" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" s="86"/>
-      <c r="D22" s="64">
-        <v>2</v>
-      </c>
-      <c r="E22" s="85" t="s">
-        <v>150</v>
-      </c>
-      <c r="F22" s="85" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" s="85"/>
-      <c r="H22" s="65"/>
-      <c r="J22" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="K22" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="L22" s="71"/>
-      <c r="M22" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="N22" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="O22" s="84"/>
-      <c r="P22" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q22" s="56" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="64">
-        <v>4</v>
-      </c>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="65"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q23" s="57" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="65"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="78"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="29" t="s">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="87"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="64"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="82"/>
+      <c r="P28" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q28" s="52" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="87"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="64"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="82"/>
+      <c r="P29" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="Q24" s="57" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="65"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="78"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="84"/>
-      <c r="P25" s="29" t="s">
+      <c r="Q29" s="52" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J30" s="75"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q30" s="52" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J31" s="75"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="82"/>
+      <c r="P31" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q31" s="52" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J32" s="75"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="82"/>
+      <c r="P32" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="Q25" s="57" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="65"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="84"/>
-      <c r="P26" s="29" t="s">
+      <c r="Q32" s="52" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J33" s="75"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="77"/>
+      <c r="O33" s="82"/>
+      <c r="P33" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="Q26" s="57" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="65"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="84"/>
-      <c r="P27" s="29" t="s">
+      <c r="Q33" s="52" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="76"/>
+      <c r="N34" s="77"/>
+      <c r="O34" s="82"/>
+      <c r="P34" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="Q27" s="57" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="65"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q28" s="57" t="s">
+      <c r="Q34" s="52" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J35" s="75"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q35" s="52" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="65"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="79"/>
-      <c r="O29" s="84"/>
-      <c r="P29" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q29" s="57" t="s">
+    <row r="36" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J36" s="75"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="77"/>
+      <c r="O36" s="82"/>
+      <c r="P36" s="27" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J30" s="77"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="79"/>
-      <c r="O30" s="84"/>
-      <c r="P30" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q30" s="57" t="s">
+      <c r="Q36" s="52" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J37" s="75"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="76"/>
+      <c r="N37" s="77"/>
+      <c r="O37" s="82"/>
+      <c r="P37" s="27" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J31" s="77"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="78"/>
-      <c r="N31" s="79"/>
-      <c r="O31" s="84"/>
-      <c r="P31" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q31" s="57" t="s">
+      <c r="Q37" s="52" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J38" s="78"/>
+      <c r="K38" s="79"/>
+      <c r="L38" s="79"/>
+      <c r="M38" s="79"/>
+      <c r="N38" s="80"/>
+      <c r="O38" s="82"/>
+      <c r="P38" s="27" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J32" s="77"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="78"/>
-      <c r="N32" s="79"/>
-      <c r="O32" s="84"/>
-      <c r="P32" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q32" s="57" t="s">
+      <c r="Q38" s="52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="P39" s="27" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="33" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J33" s="77"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="78"/>
-      <c r="M33" s="78"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="84"/>
-      <c r="P33" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q33" s="57" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J34" s="77"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="78"/>
-      <c r="M34" s="78"/>
-      <c r="N34" s="79"/>
-      <c r="O34" s="84"/>
-      <c r="P34" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q34" s="57" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="35" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J35" s="77"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="78"/>
-      <c r="M35" s="78"/>
-      <c r="N35" s="79"/>
-      <c r="O35" s="84"/>
-      <c r="P35" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q35" s="57" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="36" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J36" s="77"/>
-      <c r="K36" s="78"/>
-      <c r="L36" s="78"/>
-      <c r="M36" s="78"/>
-      <c r="N36" s="79"/>
-      <c r="O36" s="84"/>
-      <c r="P36" s="29" t="s">
+      <c r="Q39" s="52" t="s">
         <v>229</v>
-      </c>
-      <c r="Q36" s="57" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J37" s="77"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="78"/>
-      <c r="M37" s="78"/>
-      <c r="N37" s="79"/>
-      <c r="O37" s="84"/>
-      <c r="P37" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q37" s="57" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="38" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J38" s="80"/>
-      <c r="K38" s="81"/>
-      <c r="L38" s="81"/>
-      <c r="M38" s="81"/>
-      <c r="N38" s="82"/>
-      <c r="O38" s="84"/>
-      <c r="P38" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q38" s="57" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="39" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="P39" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q39" s="57" t="s">
-        <v>236</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B22:C29"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F13:H21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="J23:N38"/>
+    <mergeCell ref="O3:O38"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="H22:H29"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="F22:G29"/>
+    <mergeCell ref="L3:L22"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M17:N17"/>
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -2842,25 +2900,8 @@
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J23:N38"/>
-    <mergeCell ref="O3:O38"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="H22:H29"/>
-    <mergeCell ref="E22:E29"/>
-    <mergeCell ref="F22:G29"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="L3:L22"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="B22:C29"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F13:H21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2892,125 +2933,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="65" t="s">
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65" t="s">
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65" t="s">
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65" t="s">
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65" t="s">
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="64"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="95" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95" t="s">
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="65" t="s">
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65" t="s">
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="S2" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="95" t="s">
-        <v>96</v>
-      </c>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="U2" s="90"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
       <c r="Z2" s="91" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AA2" s="92"/>
       <c r="AB2" s="93"/>
-      <c r="AC2" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ2" s="65"/>
-      <c r="AK2" s="65"/>
+      <c r="AC2" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>2</v>
@@ -3057,60 +3098,60 @@
       <c r="Q3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="85"/>
-      <c r="S3" s="94"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="89"/>
       <c r="T3" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="V3" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="W3" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="X3" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="V3" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="W3" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="X3" s="27" t="s">
+      <c r="Y3" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="Y3" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z3" s="27" t="s">
+      <c r="Z3" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA3" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB3" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="AA3" s="27" t="s">
+      <c r="AC3" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="AB3" s="27" t="s">
+      <c r="AD3" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="AC3" s="27" t="s">
+      <c r="AE3" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="AD3" s="27" t="s">
+      <c r="AF3" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="AE3" s="27" t="s">
+      <c r="AG3" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AF3" s="27" t="s">
+      <c r="AH3" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AG3" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH3" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI3" s="28" t="s">
+      <c r="AI3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="AJ3" s="28" t="s">
+      <c r="AJ3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AK3" s="28" t="s">
+      <c r="AK3" s="26" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3121,109 +3162,109 @@
       <c r="B4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="62">
-        <v>0</v>
-      </c>
-      <c r="D4" s="62">
-        <v>0</v>
-      </c>
-      <c r="E4" s="62">
-        <v>0</v>
-      </c>
-      <c r="F4" s="58">
-        <v>0</v>
-      </c>
-      <c r="G4" s="58">
-        <v>0</v>
-      </c>
-      <c r="H4" s="58">
-        <v>0</v>
-      </c>
-      <c r="I4" s="58">
-        <v>0</v>
-      </c>
-      <c r="J4" s="58">
-        <v>0</v>
-      </c>
-      <c r="K4" s="58">
-        <v>0</v>
-      </c>
-      <c r="L4" s="58">
-        <v>0</v>
-      </c>
-      <c r="M4" s="58">
-        <v>0</v>
-      </c>
-      <c r="N4" s="58">
-        <v>0</v>
-      </c>
-      <c r="O4" s="58">
-        <v>0</v>
-      </c>
-      <c r="P4" s="58">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="62">
-        <v>0</v>
-      </c>
-      <c r="R4" s="62">
-        <v>0</v>
-      </c>
-      <c r="S4" s="62">
-        <v>0</v>
-      </c>
-      <c r="T4" s="62">
-        <v>0</v>
-      </c>
-      <c r="U4" s="62">
-        <v>0</v>
-      </c>
-      <c r="V4" s="62">
-        <v>0</v>
-      </c>
-      <c r="W4" s="58">
-        <v>0</v>
-      </c>
-      <c r="X4" s="58">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="58">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="58">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="58">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="58">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="30">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="30">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="30">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="30">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="30">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="30">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="58">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="58">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="58">
+      <c r="C4" s="56">
+        <v>0</v>
+      </c>
+      <c r="D4" s="56">
+        <v>0</v>
+      </c>
+      <c r="E4" s="56">
+        <v>0</v>
+      </c>
+      <c r="F4" s="53">
+        <v>0</v>
+      </c>
+      <c r="G4" s="53">
+        <v>0</v>
+      </c>
+      <c r="H4" s="53">
+        <v>0</v>
+      </c>
+      <c r="I4" s="53">
+        <v>0</v>
+      </c>
+      <c r="J4" s="53">
+        <v>0</v>
+      </c>
+      <c r="K4" s="53">
+        <v>0</v>
+      </c>
+      <c r="L4" s="53">
+        <v>0</v>
+      </c>
+      <c r="M4" s="53">
+        <v>0</v>
+      </c>
+      <c r="N4" s="53">
+        <v>0</v>
+      </c>
+      <c r="O4" s="53">
+        <v>0</v>
+      </c>
+      <c r="P4" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="56">
+        <v>0</v>
+      </c>
+      <c r="R4" s="56">
+        <v>0</v>
+      </c>
+      <c r="S4" s="56">
+        <v>0</v>
+      </c>
+      <c r="T4" s="56">
+        <v>0</v>
+      </c>
+      <c r="U4" s="56">
+        <v>0</v>
+      </c>
+      <c r="V4" s="56">
+        <v>0</v>
+      </c>
+      <c r="W4" s="53">
+        <v>0</v>
+      </c>
+      <c r="X4" s="53">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="53">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="53">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="53">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="28">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="53">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="53">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="53">
         <v>0</v>
       </c>
     </row>
@@ -3232,111 +3273,111 @@
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="C5" s="62">
-        <v>0</v>
-      </c>
-      <c r="D5" s="62">
+        <v>243</v>
+      </c>
+      <c r="C5" s="56">
+        <v>0</v>
+      </c>
+      <c r="D5" s="56">
         <v>0.28448000000000001</v>
       </c>
-      <c r="E5" s="62">
-        <v>0</v>
-      </c>
-      <c r="F5" s="58">
-        <v>0</v>
-      </c>
-      <c r="G5" s="58">
-        <v>0</v>
-      </c>
-      <c r="H5" s="58">
-        <v>0</v>
-      </c>
-      <c r="I5" s="58">
-        <v>0</v>
-      </c>
-      <c r="J5" s="58">
-        <v>0</v>
-      </c>
-      <c r="K5" s="58">
-        <v>0</v>
-      </c>
-      <c r="L5" s="58">
-        <v>0</v>
-      </c>
-      <c r="M5" s="58">
-        <v>0</v>
-      </c>
-      <c r="N5" s="58">
-        <v>0</v>
-      </c>
-      <c r="O5" s="58">
-        <v>0</v>
-      </c>
-      <c r="P5" s="58">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="62">
-        <v>0</v>
-      </c>
-      <c r="R5" s="62">
-        <v>0</v>
-      </c>
-      <c r="S5" s="62">
+      <c r="E5" s="56">
+        <v>0</v>
+      </c>
+      <c r="F5" s="53">
+        <v>0</v>
+      </c>
+      <c r="G5" s="53">
+        <v>0</v>
+      </c>
+      <c r="H5" s="53">
+        <v>0</v>
+      </c>
+      <c r="I5" s="53">
+        <v>0</v>
+      </c>
+      <c r="J5" s="53">
+        <v>0</v>
+      </c>
+      <c r="K5" s="53">
+        <v>0</v>
+      </c>
+      <c r="L5" s="53">
+        <v>0</v>
+      </c>
+      <c r="M5" s="53">
+        <v>0</v>
+      </c>
+      <c r="N5" s="53">
+        <v>0</v>
+      </c>
+      <c r="O5" s="53">
+        <v>0</v>
+      </c>
+      <c r="P5" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="56">
+        <v>0</v>
+      </c>
+      <c r="R5" s="56">
+        <v>0</v>
+      </c>
+      <c r="S5" s="56">
         <v>240</v>
       </c>
-      <c r="T5" s="62">
-        <v>0</v>
-      </c>
-      <c r="U5" s="62">
-        <v>0</v>
-      </c>
-      <c r="V5" s="62">
+      <c r="T5" s="56">
+        <v>0</v>
+      </c>
+      <c r="U5" s="56">
+        <v>0</v>
+      </c>
+      <c r="V5" s="56">
         <v>17.850000000000001</v>
       </c>
-      <c r="W5" s="58">
-        <v>0</v>
-      </c>
-      <c r="X5" s="58">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="58">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="58">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="58">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="58">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="30">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="30">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="30">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="30">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="30">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="30">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="58">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="58">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="58">
+      <c r="W5" s="53">
+        <v>0</v>
+      </c>
+      <c r="X5" s="53">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="53">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="53">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="53">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="53">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="53">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="53">
         <v>0</v>
       </c>
     </row>
@@ -3345,111 +3386,111 @@
         <v>3</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C6" s="17">
         <v>0.27419300000000002</v>
       </c>
-      <c r="D6" s="62">
+      <c r="D6" s="56">
         <v>0.16611600000000001</v>
       </c>
-      <c r="E6" s="62">
-        <v>0</v>
-      </c>
-      <c r="F6" s="58">
-        <v>0</v>
-      </c>
-      <c r="G6" s="58">
-        <v>0</v>
-      </c>
-      <c r="H6" s="58">
-        <v>0</v>
-      </c>
-      <c r="I6" s="58">
-        <v>0</v>
-      </c>
-      <c r="J6" s="58">
-        <v>0</v>
-      </c>
-      <c r="K6" s="58">
-        <v>0</v>
-      </c>
-      <c r="L6" s="58">
-        <v>0</v>
-      </c>
-      <c r="M6" s="58">
-        <v>0</v>
-      </c>
-      <c r="N6" s="58">
-        <v>0</v>
-      </c>
-      <c r="O6" s="58">
-        <v>0</v>
-      </c>
-      <c r="P6" s="58">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="62">
-        <v>0</v>
-      </c>
-      <c r="R6" s="62">
-        <v>0</v>
-      </c>
-      <c r="S6" s="62">
+      <c r="E6" s="56">
+        <v>0</v>
+      </c>
+      <c r="F6" s="53">
+        <v>0</v>
+      </c>
+      <c r="G6" s="53">
+        <v>0</v>
+      </c>
+      <c r="H6" s="53">
+        <v>0</v>
+      </c>
+      <c r="I6" s="53">
+        <v>0</v>
+      </c>
+      <c r="J6" s="53">
+        <v>0</v>
+      </c>
+      <c r="K6" s="53">
+        <v>0</v>
+      </c>
+      <c r="L6" s="53">
+        <v>0</v>
+      </c>
+      <c r="M6" s="53">
+        <v>0</v>
+      </c>
+      <c r="N6" s="53">
+        <v>0</v>
+      </c>
+      <c r="O6" s="53">
+        <v>0</v>
+      </c>
+      <c r="P6" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="56">
+        <v>0</v>
+      </c>
+      <c r="R6" s="56">
+        <v>0</v>
+      </c>
+      <c r="S6" s="56">
         <v>3</v>
       </c>
-      <c r="T6" s="62">
-        <v>0</v>
-      </c>
-      <c r="U6" s="62">
-        <v>0</v>
-      </c>
-      <c r="V6" s="62">
+      <c r="T6" s="56">
+        <v>0</v>
+      </c>
+      <c r="U6" s="56">
+        <v>0</v>
+      </c>
+      <c r="V6" s="56">
         <v>0.03</v>
       </c>
-      <c r="W6" s="58">
-        <v>0</v>
-      </c>
-      <c r="X6" s="58">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="58">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="58">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="58">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="58">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="30">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="30">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="30">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="30">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="30">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="30">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="58">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="58">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="58">
+      <c r="W6" s="53">
+        <v>0</v>
+      </c>
+      <c r="X6" s="53">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="53">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="53">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="53">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="53">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="53">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="53">
         <v>0</v>
       </c>
     </row>
@@ -3458,111 +3499,111 @@
         <v>4</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="C7" s="62">
+        <v>244</v>
+      </c>
+      <c r="C7" s="56">
         <v>0.48970999999999998</v>
       </c>
-      <c r="D7" s="62">
+      <c r="D7" s="56">
         <v>0.30387229999999998</v>
       </c>
-      <c r="E7" s="62">
-        <v>0</v>
-      </c>
-      <c r="F7" s="58">
-        <v>0</v>
-      </c>
-      <c r="G7" s="58">
-        <v>0</v>
-      </c>
-      <c r="H7" s="58">
-        <v>0</v>
-      </c>
-      <c r="I7" s="58">
-        <v>0</v>
-      </c>
-      <c r="J7" s="58">
-        <v>0</v>
-      </c>
-      <c r="K7" s="58">
-        <v>0</v>
-      </c>
-      <c r="L7" s="58">
-        <v>0</v>
-      </c>
-      <c r="M7" s="58">
-        <v>0</v>
-      </c>
-      <c r="N7" s="58">
-        <v>0</v>
-      </c>
-      <c r="O7" s="58">
-        <v>0</v>
-      </c>
-      <c r="P7" s="58">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="62">
+      <c r="E7" s="56">
+        <v>0</v>
+      </c>
+      <c r="F7" s="53">
+        <v>0</v>
+      </c>
+      <c r="G7" s="53">
+        <v>0</v>
+      </c>
+      <c r="H7" s="53">
+        <v>0</v>
+      </c>
+      <c r="I7" s="53">
+        <v>0</v>
+      </c>
+      <c r="J7" s="53">
+        <v>0</v>
+      </c>
+      <c r="K7" s="53">
+        <v>0</v>
+      </c>
+      <c r="L7" s="53">
+        <v>0</v>
+      </c>
+      <c r="M7" s="53">
+        <v>0</v>
+      </c>
+      <c r="N7" s="53">
+        <v>0</v>
+      </c>
+      <c r="O7" s="53">
+        <v>0</v>
+      </c>
+      <c r="P7" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="56">
         <v>1</v>
       </c>
-      <c r="R7" s="62">
+      <c r="R7" s="56">
         <v>0.30387229999999998</v>
       </c>
-      <c r="S7" s="62">
+      <c r="S7" s="56">
         <v>40</v>
       </c>
-      <c r="T7" s="62">
-        <v>0</v>
-      </c>
-      <c r="U7" s="62">
-        <v>0</v>
-      </c>
-      <c r="V7" s="62">
+      <c r="T7" s="56">
+        <v>0</v>
+      </c>
+      <c r="U7" s="56">
+        <v>0</v>
+      </c>
+      <c r="V7" s="56">
         <v>1.58</v>
       </c>
-      <c r="W7" s="58">
-        <v>0</v>
-      </c>
-      <c r="X7" s="58">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="58">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="58">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="58">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="58">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="30">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="30">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="30">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="30">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="30">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="30">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="58">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="58">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="58">
+      <c r="W7" s="53">
+        <v>0</v>
+      </c>
+      <c r="X7" s="53">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="53">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="53">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="53">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="53">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="53">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="53">
         <v>0</v>
       </c>
     </row>
@@ -6622,6 +6663,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="S1:AK1"/>
+    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:V2"/>
@@ -6635,12 +6682,6 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="S1:AK1"/>
-    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6651,8 +6692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U46" sqref="U46"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6672,16 +6713,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -6712,11 +6753,11 @@
       <c r="E2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="98" t="s">
+      <c r="F2" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -6735,23 +6776,23 @@
       <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63">
+      <c r="C3" s="57"/>
+      <c r="D3" s="57">
         <v>2</v>
       </c>
-      <c r="E3" s="63">
+      <c r="E3" s="57">
         <v>3</v>
       </c>
-      <c r="F3" s="63">
+      <c r="F3" s="57">
         <v>0.122682</v>
       </c>
-      <c r="G3" s="63">
+      <c r="G3" s="57">
         <v>0.16611600000000001</v>
       </c>
-      <c r="H3" s="63">
+      <c r="H3" s="57">
         <v>0</v>
       </c>
       <c r="I3" s="18"/>
@@ -6786,19 +6827,19 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
@@ -6823,16 +6864,16 @@
       <c r="E6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="102" t="s">
+      <c r="F6" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="103"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="102" t="s">
+      <c r="G6" s="98"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="103"/>
-      <c r="K6" s="104"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="99"/>
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
@@ -6868,22 +6909,22 @@
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="97"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -6908,11 +6949,11 @@
       <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="98" t="s">
+      <c r="F9" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
       <c r="I9" s="96" t="s">
         <v>43</v>
       </c>
@@ -6933,13 +6974,13 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
@@ -6976,19 +7017,19 @@
       <c r="X11" s="10"/>
     </row>
     <row r="12" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="97" t="s">
+      <c r="A12" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="97"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
@@ -7013,11 +7054,11 @@
       <c r="E13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="98" t="s">
+      <c r="F13" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
       <c r="I13" s="96" t="s">
         <v>45</v>
       </c>
@@ -7032,41 +7073,41 @@
       <c r="X13" s="10"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="43">
+      <c r="A14" s="38">
         <v>2</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="43" t="s">
-        <v>244</v>
-      </c>
-      <c r="D14" s="43">
+      <c r="C14" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" s="38">
         <v>3</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E14" s="38">
         <v>4</v>
       </c>
-      <c r="F14" s="43">
+      <c r="F14" s="38">
         <f>0.4257</f>
         <v>0.42570000000000002</v>
       </c>
-      <c r="G14" s="43">
+      <c r="G14" s="38">
         <f>0.166116</f>
         <v>0.16611600000000001</v>
       </c>
-      <c r="H14" s="43">
-        <v>0</v>
-      </c>
-      <c r="I14" s="43">
+      <c r="H14" s="38">
+        <v>0</v>
+      </c>
+      <c r="I14" s="38">
         <f>0.4257</f>
         <v>0.42570000000000002</v>
       </c>
-      <c r="J14" s="43">
+      <c r="J14" s="38">
         <f>0.166116</f>
         <v>0.16611600000000001</v>
       </c>
-      <c r="K14" s="43">
+      <c r="K14" s="38">
         <v>0.1</v>
       </c>
       <c r="R14" s="10"/>
@@ -7079,7 +7120,7 @@
         <v>12</v>
       </c>
       <c r="W14" s="18" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="X14" s="18">
         <v>2</v>
@@ -7087,26 +7128,26 @@
       <c r="Y14" s="18">
         <v>3</v>
       </c>
-      <c r="Z14" s="59">
+      <c r="Z14" s="54">
         <f>0.122682</f>
         <v>0.122682</v>
       </c>
-      <c r="AA14" s="59">
+      <c r="AA14" s="54">
         <f>0.166116</f>
         <v>0.16611600000000001</v>
       </c>
-      <c r="AB14" s="59">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="59">
+      <c r="AB14" s="54">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="54">
         <f>0.122682</f>
         <v>0.122682</v>
       </c>
-      <c r="AD14" s="59">
+      <c r="AD14" s="54">
         <f>0.166116</f>
         <v>0.16611600000000001</v>
       </c>
-      <c r="AE14" s="59">
+      <c r="AE14" s="54">
         <v>0.1</v>
       </c>
     </row>
@@ -7132,19 +7173,19 @@
       <c r="X16" s="10"/>
     </row>
     <row r="17" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="97"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="97"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
@@ -7169,11 +7210,11 @@
       <c r="E18" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="98" t="s">
+      <c r="F18" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
       <c r="I18" s="96" t="s">
         <v>43</v>
       </c>
@@ -7215,19 +7256,19 @@
       <c r="X20" s="10"/>
     </row>
     <row r="21" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
@@ -7252,11 +7293,11 @@
       <c r="E22" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="98" t="s">
+      <c r="F22" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="98"/>
-      <c r="H22" s="98"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
       <c r="I22" s="96" t="s">
         <v>11</v>
       </c>
@@ -7302,51 +7343,51 @@
     <row r="25" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="97" t="s">
-        <v>128</v>
-      </c>
-      <c r="B27" s="97"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="97"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="97"/>
-      <c r="L27" s="97"/>
-      <c r="M27" s="97"/>
-      <c r="N27" s="97"/>
+      <c r="A27" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="94"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="94"/>
     </row>
     <row r="28" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="34" t="s">
+      <c r="E28" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="98" t="s">
+      <c r="F28" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="95"/>
       <c r="I28" s="96" t="s">
         <v>49</v>
       </c>
       <c r="J28" s="96"/>
       <c r="K28" s="96"/>
       <c r="L28" s="96" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M28" s="96"/>
       <c r="N28" s="96"/>
@@ -7354,75 +7395,75 @@
     <row r="29" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="97" t="s">
-        <v>130</v>
-      </c>
-      <c r="B31" s="97"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="97"/>
-      <c r="L31" s="97"/>
-      <c r="M31" s="97"/>
-      <c r="N31" s="97"/>
-      <c r="O31" s="97"/>
-      <c r="P31" s="97"/>
-      <c r="Q31" s="97"/>
+      <c r="A31" s="94" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="94"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="94"/>
+      <c r="O31" s="94"/>
+      <c r="P31" s="94"/>
+      <c r="Q31" s="94"/>
     </row>
     <row r="32" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="34" t="s">
+      <c r="E32" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="102" t="s">
+      <c r="F32" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="103"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="102" t="s">
+      <c r="G32" s="98"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="J32" s="103"/>
-      <c r="K32" s="104"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="99"/>
       <c r="L32" s="96" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="M32" s="96"/>
       <c r="N32" s="96"/>
       <c r="O32" s="96" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="P32" s="96"/>
       <c r="Q32" s="96"/>
-      <c r="T32" s="59"/>
-      <c r="U32" s="59"/>
-      <c r="V32" s="59"/>
+      <c r="T32" s="54"/>
+      <c r="U32" s="54"/>
+      <c r="V32" s="54"/>
     </row>
     <row r="33" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <v>3</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D33" s="18">
         <v>2</v>
@@ -7430,25 +7471,25 @@
       <c r="E33" s="18">
         <v>4</v>
       </c>
-      <c r="F33" s="59">
+      <c r="F33" s="54">
         <f>0.26035</f>
         <v>0.26035000000000003</v>
       </c>
-      <c r="G33" s="59">
+      <c r="G33" s="54">
         <f>0.69342</f>
         <v>0.69342000000000004</v>
       </c>
-      <c r="H33" s="59">
-        <v>0</v>
-      </c>
-      <c r="I33" s="59">
+      <c r="H33" s="54">
+        <v>0</v>
+      </c>
+      <c r="I33" s="54">
         <f>0.41097</f>
         <v>0.41097</v>
       </c>
-      <c r="J33" s="59">
+      <c r="J33" s="54">
         <v>0.19003</v>
       </c>
-      <c r="K33" s="59">
+      <c r="K33" s="54">
         <v>0</v>
       </c>
       <c r="L33" s="18">
@@ -7462,29 +7503,29 @@
       <c r="N33" s="18">
         <v>0.1</v>
       </c>
-      <c r="O33" s="43">
+      <c r="O33" s="38">
         <v>0.16535</v>
       </c>
-      <c r="P33" s="43">
+      <c r="P33" s="38">
         <v>-0.52729999999999999</v>
       </c>
-      <c r="Q33" s="43">
-        <v>0</v>
-      </c>
-      <c r="T33" s="43"/>
-      <c r="U33" s="43"/>
-      <c r="V33" s="43"/>
+      <c r="Q33" s="38">
+        <v>0</v>
+      </c>
+      <c r="T33" s="38"/>
+      <c r="U33" s="38"/>
+      <c r="V33" s="38"/>
     </row>
     <row r="34" spans="1:24" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="97" t="s">
+      <c r="A35" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="97"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
@@ -7558,12 +7599,12 @@
       <c r="X38" s="10"/>
     </row>
     <row r="39" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="97" t="s">
+      <c r="A39" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="97"/>
-      <c r="C39" s="97"/>
-      <c r="D39" s="97"/>
+      <c r="B39" s="94"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="94"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
@@ -7635,15 +7676,15 @@
       <c r="K42" s="11"/>
     </row>
     <row r="43" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="99" t="s">
+      <c r="A43" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="100"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="100"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="100"/>
-      <c r="G43" s="101"/>
+      <c r="B43" s="101"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="101"/>
+      <c r="F43" s="101"/>
+      <c r="G43" s="102"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
       <c r="J43" s="10"/>
@@ -7652,7 +7693,7 @@
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>6</v>
@@ -7676,7 +7717,7 @@
     <row r="45" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="13" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="13">
@@ -7697,7 +7738,7 @@
     <row r="46" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="13" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="13">
@@ -7718,8 +7759,8 @@
     </row>
     <row r="47" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
-      <c r="B47" s="43" t="s">
-        <v>258</v>
+      <c r="B47" s="38" t="s">
+        <v>249</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="13">
@@ -7742,8 +7783,8 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
-      <c r="B48" s="43" t="s">
-        <v>258</v>
+      <c r="B48" s="38" t="s">
+        <v>249</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="13">
@@ -7761,93 +7802,93 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B49" s="21" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D49" s="21">
         <v>3</v>
       </c>
-      <c r="E49" s="43">
+      <c r="E49" s="38">
         <v>0.12266199999999999</v>
       </c>
-      <c r="F49" s="43">
+      <c r="F49" s="38">
         <v>0.16611600000000001</v>
       </c>
-      <c r="G49" s="43">
+      <c r="G49" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B50" s="21" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D50" s="21">
         <v>3</v>
       </c>
-      <c r="E50" s="43">
+      <c r="E50" s="38">
         <v>0.42570000000000002</v>
       </c>
-      <c r="F50" s="43">
+      <c r="F50" s="38">
         <v>0.16611600000000001</v>
       </c>
-      <c r="G50" s="43">
+      <c r="G50" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B51" s="21" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D51" s="21">
         <v>4</v>
       </c>
-      <c r="E51" s="43">
+      <c r="E51" s="38">
         <v>0.42570000000000002</v>
       </c>
-      <c r="F51" s="43">
+      <c r="F51" s="38">
         <v>0.16611600000000001</v>
       </c>
-      <c r="G51" s="43">
+      <c r="G51" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B52" s="21" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D52" s="21">
         <v>4</v>
       </c>
-      <c r="E52" s="43">
+      <c r="E52" s="38">
         <v>0.41097</v>
       </c>
-      <c r="F52" s="43">
+      <c r="F52" s="38">
         <v>0.19003</v>
       </c>
-      <c r="G52" s="43">
+      <c r="G52" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B53" s="21" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D53" s="21">
         <v>4</v>
       </c>
-      <c r="E53" s="43">
+      <c r="E53" s="38">
         <v>0.40881200000000001</v>
       </c>
-      <c r="F53" s="43">
+      <c r="F53" s="38">
         <v>0.21540000000000001</v>
       </c>
-      <c r="G53" s="43">
+      <c r="G53" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="B54" s="13" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="13">
@@ -7864,40 +7905,25 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="D55" s="43">
+      <c r="B55" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="D55" s="38">
         <v>4</v>
       </c>
-      <c r="E55" s="43">
+      <c r="E55" s="38">
         <v>0.51500000000000001</v>
       </c>
-      <c r="F55" s="43">
+      <c r="F55" s="38">
         <v>0.3</v>
       </c>
-      <c r="G55" s="43">
+      <c r="G55" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="66" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
     <mergeCell ref="E44:G44"/>
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="F22:H22"/>
@@ -7914,6 +7940,21 @@
     <mergeCell ref="I32:K32"/>
     <mergeCell ref="L32:N32"/>
     <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -7932,10 +7973,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4658AC4-6667-4045-B0FE-42E281567C35}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7944,84 +7985,98 @@
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
     <col min="6" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="31.7109375" customWidth="1"/>
     <col min="10" max="10" width="40.140625" customWidth="1"/>
+    <col min="11" max="11" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108" t="s">
+        <v>250</v>
+      </c>
+      <c r="K1" s="108"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="105" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="106"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="43">
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="61" t="s">
+        <v>251</v>
+      </c>
+      <c r="J2" s="61" t="s">
+        <v>252</v>
+      </c>
+      <c r="K2" s="61" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="38">
         <v>4</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="38">
         <v>2</v>
       </c>
-      <c r="F3" s="43">
-        <v>0</v>
-      </c>
-      <c r="G3" s="43">
+      <c r="F3" s="38">
+        <v>0</v>
+      </c>
+      <c r="G3" s="38">
         <v>1</v>
       </c>
-      <c r="H3" s="43">
-        <v>0</v>
-      </c>
-      <c r="I3" s="25" t="s">
+      <c r="H3" s="38">
+        <v>0</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="J3" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="J3" s="43" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="24" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
-        <v>91</v>
-      </c>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J23" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8029,10 +8084,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F55610B-D925-4735-AE3D-EBBD0AD81ACC}">
-  <dimension ref="A1:Z21"/>
+  <dimension ref="A1:AG23"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8041,158 +8096,161 @@
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="21" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" customWidth="1"/>
-    <col min="15" max="15" width="17" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" customWidth="1"/>
-    <col min="20" max="20" width="11" customWidth="1"/>
-    <col min="21" max="21" width="9.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+    <col min="16" max="16" width="17" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" customWidth="1"/>
+    <col min="18" max="18" width="18.7109375" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" customWidth="1"/>
+    <col min="20" max="20" width="17" customWidth="1"/>
+    <col min="21" max="22" width="15" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" customWidth="1"/>
+    <col min="25" max="25" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-    </row>
-    <row r="2" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="121" t="s">
-        <v>117</v>
-      </c>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="122"/>
-      <c r="U2" s="110" t="s">
-        <v>125</v>
-      </c>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="110"/>
-      <c r="Z2" s="110"/>
-    </row>
-    <row r="3" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+    <row r="1" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+    </row>
+    <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="110" t="s">
+        <v>257</v>
+      </c>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="112"/>
+      <c r="AB2" s="113" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC2" s="114"/>
+      <c r="AD2" s="114"/>
+      <c r="AE2" s="114"/>
+      <c r="AF2" s="114"/>
+      <c r="AG2" s="115"/>
+    </row>
+    <row r="3" spans="1:33" s="29" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="111" t="s">
+      <c r="F3" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="112"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="114" t="s">
+      <c r="G3" s="105"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="61" t="s">
-        <v>252</v>
-      </c>
-      <c r="M3" s="37" t="s">
+      <c r="J3" s="117"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="N3" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="O3" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="P3" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="N3" s="60" t="s">
+      <c r="Q3" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="R3" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="O3" s="60" t="s">
-        <v>119</v>
-      </c>
-      <c r="P3" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q3" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="R3" s="120" t="s">
-        <v>124</v>
-      </c>
-      <c r="S3" s="120"/>
-      <c r="U3" s="110"/>
-      <c r="V3" s="110"/>
-      <c r="W3" s="110"/>
-      <c r="X3" s="110"/>
-      <c r="Y3" s="110"/>
-      <c r="Z3" s="110"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>245</v>
-      </c>
-      <c r="D4" s="43">
+      <c r="S3" s="109"/>
+      <c r="AB3" s="119"/>
+      <c r="AC3" s="120"/>
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="120"/>
+      <c r="AG3" s="121"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B4" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" s="38">
         <v>2</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="38">
         <v>4</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="38">
         <f>0.26035</f>
         <v>0.26035000000000003</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="38">
         <f>0.69342</f>
         <v>0.69342000000000004</v>
       </c>
-      <c r="H4" s="43">
-        <v>0</v>
-      </c>
-      <c r="I4" s="43">
+      <c r="H4" s="38">
+        <v>0</v>
+      </c>
+      <c r="I4" s="38">
         <v>0.41097</v>
       </c>
-      <c r="J4" s="43">
+      <c r="J4" s="38">
         <v>0.19003</v>
       </c>
-      <c r="K4" s="43">
+      <c r="K4" s="38">
         <v>0</v>
       </c>
       <c r="L4" s="18">
@@ -8202,498 +8260,615 @@
         <f>140000</f>
         <v>140000</v>
       </c>
-      <c r="N4" s="18"/>
+      <c r="N4" s="122"/>
       <c r="O4" s="18"/>
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
-      <c r="U4" s="110"/>
-      <c r="V4" s="110"/>
-      <c r="W4" s="110"/>
-      <c r="X4" s="110"/>
-      <c r="Y4" s="110"/>
-      <c r="Z4" s="110"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>246</v>
-      </c>
-      <c r="D5" s="43">
+      <c r="R4" s="18"/>
+      <c r="AB4" s="119"/>
+      <c r="AC4" s="120"/>
+      <c r="AD4" s="120"/>
+      <c r="AE4" s="120"/>
+      <c r="AF4" s="120"/>
+      <c r="AG4" s="121"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="38">
         <v>4</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="38">
         <v>1</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="38">
         <f>0.515112</f>
         <v>0.51511200000000001</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="38">
         <f>0.3</f>
         <v>0.3</v>
       </c>
-      <c r="H5" s="43">
-        <v>0</v>
-      </c>
-      <c r="I5" s="43">
-        <v>0</v>
-      </c>
-      <c r="J5" s="43">
-        <v>0</v>
-      </c>
-      <c r="K5" s="43">
-        <v>0</v>
-      </c>
-      <c r="L5" s="43">
+      <c r="H5" s="38">
+        <v>0</v>
+      </c>
+      <c r="I5" s="38">
+        <v>0</v>
+      </c>
+      <c r="J5" s="38">
+        <v>0</v>
+      </c>
+      <c r="K5" s="38">
+        <v>0</v>
+      </c>
+      <c r="L5" s="38">
         <v>0.3</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="38">
         <f>400000</f>
         <v>400000</v>
       </c>
-      <c r="U5" s="110"/>
-      <c r="V5" s="110"/>
-      <c r="W5" s="110"/>
-      <c r="X5" s="110"/>
-      <c r="Y5" s="110"/>
-      <c r="Z5" s="110"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U6" s="110"/>
-      <c r="V6" s="110"/>
-      <c r="W6" s="110"/>
-      <c r="X6" s="110"/>
-      <c r="Y6" s="110"/>
-      <c r="Z6" s="110"/>
-    </row>
-    <row r="7" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="115" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
-      <c r="M7" s="116"/>
-      <c r="N7" s="116"/>
-      <c r="O7" s="116"/>
-      <c r="P7" s="116"/>
-      <c r="Q7" s="116"/>
-      <c r="R7" s="116"/>
-      <c r="U7" s="110"/>
-      <c r="V7" s="110"/>
-      <c r="W7" s="110"/>
-      <c r="X7" s="110"/>
-      <c r="Y7" s="110"/>
-      <c r="Z7" s="110"/>
-    </row>
-    <row r="8" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="97"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="117" t="s">
-        <v>121</v>
-      </c>
-      <c r="N8" s="118"/>
-      <c r="O8" s="118"/>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="118"/>
-      <c r="R8" s="119"/>
-      <c r="U8" s="110"/>
-      <c r="V8" s="110"/>
-      <c r="W8" s="110"/>
-      <c r="X8" s="110"/>
-      <c r="Y8" s="110"/>
-      <c r="Z8" s="110"/>
-    </row>
-    <row r="9" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="AB5" s="119"/>
+      <c r="AC5" s="120"/>
+      <c r="AD5" s="120"/>
+      <c r="AE5" s="120"/>
+      <c r="AF5" s="120"/>
+      <c r="AG5" s="121"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AB6" s="119"/>
+      <c r="AC6" s="120"/>
+      <c r="AD6" s="120"/>
+      <c r="AE6" s="120"/>
+      <c r="AF6" s="120"/>
+      <c r="AG6" s="121"/>
+    </row>
+    <row r="7" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="107" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="108"/>
+      <c r="AB7" s="119"/>
+      <c r="AC7" s="120"/>
+      <c r="AD7" s="120"/>
+      <c r="AE7" s="120"/>
+      <c r="AF7" s="120"/>
+      <c r="AG7" s="121"/>
+    </row>
+    <row r="8" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="94"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="123" t="s">
+        <v>258</v>
+      </c>
+      <c r="O8" s="123"/>
+      <c r="P8" s="123"/>
+      <c r="Q8" s="123"/>
+      <c r="R8" s="123"/>
+      <c r="AB8" s="119"/>
+      <c r="AC8" s="120"/>
+      <c r="AD8" s="120"/>
+      <c r="AE8" s="120"/>
+      <c r="AF8" s="120"/>
+      <c r="AG8" s="121"/>
+    </row>
+    <row r="9" spans="1:33" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="111" t="s">
+      <c r="F9" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="112"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="114" t="s">
+      <c r="G9" s="105"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="37" t="s">
+      <c r="J9" s="117"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="N9" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="O9" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="P9" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="M9" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="N9" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="O9" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="P9" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q9" s="111" t="s">
-        <v>123</v>
-      </c>
-      <c r="R9" s="113"/>
-      <c r="U9" s="110"/>
-      <c r="V9" s="110"/>
-      <c r="W9" s="110"/>
-      <c r="X9" s="110"/>
-      <c r="Y9" s="110"/>
-      <c r="Z9" s="110"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>247</v>
-      </c>
-      <c r="D10" s="43">
+      <c r="Q9" s="104" t="s">
+        <v>117</v>
+      </c>
+      <c r="R9" s="106"/>
+      <c r="AB9" s="119"/>
+      <c r="AC9" s="120"/>
+      <c r="AD9" s="120"/>
+      <c r="AE9" s="120"/>
+      <c r="AF9" s="120"/>
+      <c r="AG9" s="121"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" s="38">
         <v>2</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="38">
         <v>4</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="38">
         <f>0.26035</f>
         <v>0.26035000000000003</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G10" s="38">
         <f>0.69342</f>
         <v>0.69342000000000004</v>
       </c>
-      <c r="H10" s="43">
-        <v>0</v>
-      </c>
-      <c r="I10" s="43">
+      <c r="H10" s="38">
+        <v>0</v>
+      </c>
+      <c r="I10" s="38">
         <v>0.41097</v>
       </c>
-      <c r="J10" s="43">
+      <c r="J10" s="38">
         <v>0.19003</v>
       </c>
-      <c r="K10" s="43">
-        <v>0</v>
-      </c>
-      <c r="L10" s="43">
+      <c r="K10" s="38">
+        <v>0</v>
+      </c>
+      <c r="L10" s="38">
         <f>6000</f>
         <v>6000</v>
       </c>
-      <c r="M10" s="25"/>
-      <c r="U10" s="110"/>
-      <c r="V10" s="110"/>
-      <c r="W10" s="110"/>
-      <c r="X10" s="110"/>
-      <c r="Y10" s="110"/>
-      <c r="Z10" s="110"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>248</v>
-      </c>
-      <c r="D11" s="43">
+      <c r="M10" s="24"/>
+      <c r="AB10" s="119"/>
+      <c r="AC10" s="120"/>
+      <c r="AD10" s="120"/>
+      <c r="AE10" s="120"/>
+      <c r="AF10" s="120"/>
+      <c r="AG10" s="121"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11" s="38">
         <v>4</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="38">
         <v>1</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="38">
         <f>0.515112</f>
         <v>0.51511200000000001</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="38">
         <f>0.3</f>
         <v>0.3</v>
       </c>
-      <c r="H11" s="43">
-        <v>0</v>
-      </c>
-      <c r="I11" s="43">
-        <v>0</v>
-      </c>
-      <c r="J11" s="43">
-        <v>0</v>
-      </c>
-      <c r="K11" s="43">
-        <v>0</v>
-      </c>
-      <c r="L11" s="43">
+      <c r="H11" s="38">
+        <v>0</v>
+      </c>
+      <c r="I11" s="38">
+        <v>0</v>
+      </c>
+      <c r="J11" s="38">
+        <v>0</v>
+      </c>
+      <c r="K11" s="38">
+        <v>0</v>
+      </c>
+      <c r="L11" s="38">
         <f>10000</f>
         <v>10000</v>
       </c>
-      <c r="U11" s="110"/>
-      <c r="V11" s="110"/>
-      <c r="W11" s="110"/>
-      <c r="X11" s="110"/>
-      <c r="Y11" s="110"/>
-      <c r="Z11" s="110"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U12" s="110"/>
-      <c r="V12" s="110"/>
-      <c r="W12" s="110"/>
-      <c r="X12" s="110"/>
-      <c r="Y12" s="110"/>
-      <c r="Z12" s="110"/>
-    </row>
-    <row r="13" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="99" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="100"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="U13" s="110"/>
-      <c r="V13" s="110"/>
-      <c r="W13" s="110"/>
-      <c r="X13" s="110"/>
-      <c r="Y13" s="110"/>
-      <c r="Z13" s="110"/>
-    </row>
-    <row r="14" spans="1:26" s="32" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="AB11" s="119"/>
+      <c r="AC11" s="120"/>
+      <c r="AD11" s="120"/>
+      <c r="AE11" s="120"/>
+      <c r="AF11" s="120"/>
+      <c r="AG11" s="121"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="Q12" s="38"/>
+      <c r="AB12" s="119"/>
+      <c r="AC12" s="120"/>
+      <c r="AD12" s="120"/>
+      <c r="AE12" s="120"/>
+      <c r="AF12" s="120"/>
+      <c r="AG12" s="121"/>
+    </row>
+    <row r="13" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="107" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="108"/>
+      <c r="Q13" s="108"/>
+      <c r="R13" s="108"/>
+      <c r="S13" s="108"/>
+      <c r="T13" s="108"/>
+      <c r="U13" s="108"/>
+      <c r="V13" s="108"/>
+      <c r="W13" s="108"/>
+      <c r="X13" s="108"/>
+      <c r="Y13" s="108"/>
+      <c r="AB13" s="124"/>
+      <c r="AC13" s="125"/>
+      <c r="AD13" s="125"/>
+      <c r="AE13" s="125"/>
+      <c r="AF13" s="125"/>
+      <c r="AG13" s="126"/>
+    </row>
+    <row r="14" spans="1:33" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="100"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="101"/>
+      <c r="O14" s="101"/>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="101"/>
+      <c r="R14" s="101"/>
+      <c r="S14" s="102"/>
+      <c r="T14" s="110" t="s">
+        <v>259</v>
+      </c>
+      <c r="U14" s="111"/>
+      <c r="V14" s="111"/>
+      <c r="W14" s="111"/>
+      <c r="X14" s="111"/>
+      <c r="Y14" s="112"/>
+      <c r="Z14" s="127"/>
+      <c r="AA14" s="127"/>
+    </row>
+    <row r="15" spans="1:33" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B15" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C15" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D15" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E15" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="114" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="J14" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86" t="s">
-        <v>78</v>
-      </c>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-    </row>
-    <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="99" t="s">
-        <v>152</v>
-      </c>
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="F15" s="87" t="s">
+        <v>260</v>
+      </c>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="116" t="s">
+        <v>261</v>
+      </c>
+      <c r="J15" s="117"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="128" t="s">
+        <v>262</v>
+      </c>
+      <c r="M15" s="129"/>
+      <c r="N15" s="130"/>
+      <c r="O15" s="128" t="s">
+        <v>263</v>
+      </c>
+      <c r="P15" s="129"/>
+      <c r="Q15" s="130"/>
+      <c r="R15" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="S15" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="T15" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="U15" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="V15" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="W15" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="X15" s="104" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y15" s="106"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+    </row>
+    <row r="18" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="107" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="108"/>
+      <c r="N18" s="108"/>
+      <c r="O18" s="108"/>
+      <c r="P18" s="108"/>
+      <c r="Q18" s="108"/>
+    </row>
+    <row r="19" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="131"/>
+      <c r="B19" s="132"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="132"/>
+      <c r="K19" s="132"/>
+      <c r="L19" s="110" t="s">
+        <v>257</v>
+      </c>
+      <c r="M19" s="111"/>
+      <c r="N19" s="111"/>
+      <c r="O19" s="111"/>
+      <c r="P19" s="111"/>
+      <c r="Q19" s="112"/>
+    </row>
+    <row r="20" spans="1:20" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B20" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C20" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D20" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E20" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="65" t="s">
+      <c r="F20" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65" t="s">
-        <v>161</v>
-      </c>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="30" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="128" t="s">
+        <v>155</v>
+      </c>
+      <c r="J20" s="129"/>
+      <c r="K20" s="130"/>
+      <c r="L20" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="M20" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="N20" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="O20" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="P20" s="104" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q20" s="106"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="U2:Z13"/>
+  <mergeCells count="26">
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="A18:Q18"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="AB2:AG13"/>
+    <mergeCell ref="A8:M8"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="A13:Y13"/>
+    <mergeCell ref="A14:S14"/>
+    <mergeCell ref="T14:Y14"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="A7:R7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="M8:R8"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="A13:P13"/>
     <mergeCell ref="R3:S3"/>
-    <mergeCell ref="M2:S2"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:Q15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8716,261 +8891,261 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
-        <v>237</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="F1" s="88" t="s">
+      <c r="A1" s="94" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="F1" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="69"/>
+      <c r="I1" s="67" t="s">
+        <v>234</v>
+      </c>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="69"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" s="103" t="s">
+        <v>233</v>
+      </c>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="F3" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="90"/>
-      <c r="I1" s="88" t="s">
-        <v>241</v>
-      </c>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="90"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
-        <v>238</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="55" t="s">
+      <c r="G3" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="F4" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="F5" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="G2" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="I2" s="110" t="s">
-        <v>240</v>
-      </c>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="F3" s="55" t="s">
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="F6" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="F8" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="F4" s="55" t="s">
-        <v>166</v>
-      </c>
-      <c r="G4" s="56" t="s">
+      <c r="G8" s="51" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="F5" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="G5" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="F6" s="55" t="s">
+      <c r="G9" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="F10" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="G6" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="55" t="s">
+      <c r="G10" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="G7" s="56" t="s">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="F11" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="F12" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="F13" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="51" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="F14" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="F8" s="55" t="s">
-        <v>174</v>
-      </c>
-      <c r="G8" s="56" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="55" t="s">
-        <v>175</v>
-      </c>
-      <c r="G9" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="H9" s="36"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="F10" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="G10" s="56" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="F11" s="55" t="s">
+      <c r="G14" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="G11" s="56" t="s">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="F15" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="G15" s="51" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="F16" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="G16" s="51" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="F17" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="G17" s="51" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="F18" s="50" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="F12" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="G12" s="56" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="F13" s="55" t="s">
-        <v>183</v>
-      </c>
-      <c r="G13" s="56" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="F14" s="55" t="s">
-        <v>184</v>
-      </c>
-      <c r="G14" s="56" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="F15" s="55" t="s">
+      <c r="G18" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="G15" s="56" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="F16" s="55" t="s">
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="F19" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="G16" s="56" t="s">
+      <c r="G19" s="51" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="F17" s="55" t="s">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="50"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="F20" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="G17" s="56" t="s">
+      <c r="G20" s="51" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="F18" s="55" t="s">
-        <v>192</v>
-      </c>
-      <c r="G18" s="56" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="F19" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="G19" s="56" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="F20" s="55" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" s="56" t="s">
-        <v>202</v>
       </c>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
@@ -8985,232 +9160,232 @@
       <c r="T20" s="18"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="F21" s="55" t="s">
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="F21" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="G21" s="51" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="50"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="F22" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" s="52" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="F23" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="G21" s="56" t="s">
+      <c r="G23" s="52" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="F24" s="27" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="F22" s="55" t="s">
+      <c r="G24" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="G22" s="57" t="s">
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="F25" s="27" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="F23" s="29" t="s">
+      <c r="G25" s="52" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="F26" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G26" s="52" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="50"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="F27" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="G27" s="52" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="F28" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="G23" s="57" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="F24" s="29" t="s">
+      <c r="G28" s="52" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="F29" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="G29" s="52" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="F30" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="G30" s="52" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="F31" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="G24" s="57" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="F25" s="29" t="s">
+      <c r="G31" s="52" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="F32" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="G25" s="57" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="F26" s="29" t="s">
+      <c r="G32" s="52" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="50"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="F33" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="G26" s="57" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="F27" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="G27" s="57" t="s">
+      <c r="G33" s="52" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="50"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="F34" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="G34" s="52" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="F28" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="G28" s="57" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="F35" s="27" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="F29" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="G29" s="57" t="s">
+      <c r="G35" s="52" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="50"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="F36" s="27" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="F30" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="G30" s="57" t="s">
+      <c r="G36" s="52" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="50"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="F37" s="27" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="F31" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="G31" s="57" t="s">
+      <c r="G37" s="52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="50"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="F38" s="27" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="F32" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="G32" s="57" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="F33" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="G33" s="57" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="F34" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="G34" s="57" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="F35" s="29" t="s">
+      <c r="G38" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="G35" s="57" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="F36" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="G36" s="57" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
-      <c r="F37" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="G37" s="57" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="F38" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="G38" s="57" t="s">
-        <v>236</v>
-      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
+      <c r="A39" s="50"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
+      <c r="A40" s="50"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
+      <c r="A41" s="50"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
+      <c r="A42" s="50"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
+      <c r="A43" s="50"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
-      <c r="B44" s="55"/>
-      <c r="C44" s="55"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/mbs-EP-v.1.0.2/Excel Files/mcpherson_2d/mcpherson_2d.xlsx
+++ b/mbs-EP-v.1.0.2/Excel Files/mcpherson_2d/mcpherson_2d.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.2\Excel Files\mcpherson_2d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463B01CC-A2CF-41FA-B13C-E43BA838061F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEC0C89-A9C0-43BE-AC98-D1B07D02F635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="265">
   <si>
     <t>Mass</t>
   </si>
@@ -852,15 +852,6 @@
     <t>Acceleration Function</t>
   </si>
   <si>
-    <t>@(x) -(0.01*exp(-3*t)*cos(30*t))</t>
-  </si>
-  <si>
-    <t>@(x)(0.03*exp(-3*t)*cos(30*t))</t>
-  </si>
-  <si>
-    <t>@(x)-(0.09*exp(-3*t)*cos(30*t))</t>
-  </si>
-  <si>
     <t>@(x) Non Linear Force Function (x-Displ) [Write as '@(x) func(x)]</t>
   </si>
   <si>
@@ -880,6 +871,18 @@
   </si>
   <si>
     <t>sj(vector to take body j orientation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>@(x) -(0.01*exp(-3*x)*cos(30*x))</t>
+  </si>
+  <si>
+    <t>@(x)(0.03*exp(-3*x)*cos(30*x))</t>
+  </si>
+  <si>
+    <t>@(x)-(0.09*exp(-3*x)*cos(30*x))</t>
   </si>
 </sst>
 </file>
@@ -1295,12 +1298,77 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1316,61 +1384,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1379,13 +1399,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1394,7 +1408,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1406,101 +1426,84 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1934,8 +1937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE954C49-6E73-4D49-8054-42AF7A10140C}">
   <dimension ref="B2:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1954,44 +1957,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
-      <c r="J2" s="63" t="s">
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92"/>
+      <c r="J2" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="66"/>
+      <c r="C3" s="89"/>
       <c r="D3" s="41">
         <v>5</v>
       </c>
       <c r="E3" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="70" t="s">
+      <c r="J3" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="K3" s="71"/>
+      <c r="K3" s="82"/>
       <c r="L3" s="84"/>
-      <c r="M3" s="70" t="s">
+      <c r="M3" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="N3" s="71"/>
-      <c r="O3" s="81"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="79"/>
       <c r="P3" s="36" t="s">
         <v>157</v>
       </c>
@@ -2000,10 +2003,10 @@
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="66"/>
+      <c r="C4" s="89"/>
       <c r="D4" s="41">
         <v>0.01</v>
       </c>
@@ -2023,7 +2026,7 @@
       <c r="N4" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="O4" s="82"/>
+      <c r="O4" s="80"/>
       <c r="P4" s="36" t="s">
         <v>158</v>
       </c>
@@ -2032,10 +2035,10 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="66"/>
+      <c r="C5" s="89"/>
       <c r="D5" s="41" t="s">
         <v>81</v>
       </c>
@@ -2055,7 +2058,7 @@
       <c r="N5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="82"/>
+      <c r="O5" s="80"/>
       <c r="P5" s="36" t="s">
         <v>159</v>
       </c>
@@ -2064,10 +2067,10 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="66"/>
+      <c r="C6" s="89"/>
       <c r="D6" s="41" t="s">
         <v>3</v>
       </c>
@@ -2087,7 +2090,7 @@
       <c r="N6" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="O6" s="82"/>
+      <c r="O6" s="80"/>
       <c r="P6" s="36" t="s">
         <v>163</v>
       </c>
@@ -2096,10 +2099,10 @@
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="66"/>
+      <c r="C7" s="89"/>
       <c r="D7" s="41">
         <v>-9.8064999999999998</v>
       </c>
@@ -2119,7 +2122,7 @@
       <c r="N7" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="82"/>
+      <c r="O7" s="80"/>
       <c r="P7" s="36" t="s">
         <v>162</v>
       </c>
@@ -2128,10 +2131,10 @@
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="66"/>
+      <c r="C8" s="89"/>
       <c r="D8" s="41" t="s">
         <v>246</v>
       </c>
@@ -2151,7 +2154,7 @@
       <c r="N8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="82"/>
+      <c r="O8" s="80"/>
       <c r="P8" s="36" t="s">
         <v>166</v>
       </c>
@@ -2160,10 +2163,10 @@
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="66"/>
+      <c r="C9" s="89"/>
       <c r="D9" s="41"/>
       <c r="E9" s="42" t="s">
         <v>121</v>
@@ -2181,7 +2184,7 @@
       <c r="N9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="82"/>
+      <c r="O9" s="80"/>
       <c r="P9" s="36" t="s">
         <v>167</v>
       </c>
@@ -2203,7 +2206,7 @@
       <c r="N10" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="82"/>
+      <c r="O10" s="80"/>
       <c r="P10" s="40" t="s">
         <v>168</v>
       </c>
@@ -2221,7 +2224,7 @@
       <c r="N11" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="O11" s="82"/>
+      <c r="O11" s="80"/>
       <c r="P11" s="40" t="s">
         <v>169</v>
       </c>
@@ -2230,15 +2233,15 @@
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
       <c r="J12" s="46"/>
       <c r="K12" s="47"/>
       <c r="L12" s="85"/>
@@ -2248,7 +2251,7 @@
       <c r="N12" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="O12" s="82"/>
+      <c r="O12" s="80"/>
       <c r="P12" s="36" t="s">
         <v>174</v>
       </c>
@@ -2257,19 +2260,19 @@
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="64"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="58" t="s">
         <v>242</v>
       </c>
       <c r="E13" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
       <c r="J13" s="46"/>
       <c r="K13" s="47"/>
       <c r="L13" s="85"/>
@@ -2279,7 +2282,7 @@
       <c r="N13" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="82"/>
+      <c r="O13" s="80"/>
       <c r="P13" s="40" t="s">
         <v>175</v>
       </c>
@@ -2288,17 +2291,17 @@
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="64"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="58"/>
       <c r="E14" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
       <c r="J14" s="48"/>
       <c r="K14" s="49"/>
       <c r="L14" s="85"/>
@@ -2308,7 +2311,7 @@
       <c r="N14" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="O14" s="82"/>
+      <c r="O14" s="80"/>
       <c r="P14" s="40" t="s">
         <v>176</v>
       </c>
@@ -2317,21 +2320,21 @@
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="64"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="58"/>
       <c r="E15" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="J15" s="70" t="s">
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="J15" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="K15" s="71"/>
+      <c r="K15" s="82"/>
       <c r="L15" s="85"/>
       <c r="M15" s="36" t="s">
         <v>15</v>
@@ -2339,7 +2342,7 @@
       <c r="N15" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="82"/>
+      <c r="O15" s="80"/>
       <c r="P15" s="40" t="s">
         <v>177</v>
       </c>
@@ -2348,19 +2351,19 @@
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="64"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="58" t="s">
         <v>242</v>
       </c>
       <c r="E16" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
       <c r="J16" s="36" t="s">
         <v>94</v>
       </c>
@@ -2374,7 +2377,7 @@
       <c r="N16" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="O16" s="82"/>
+      <c r="O16" s="80"/>
       <c r="P16" s="36" t="s">
         <v>182</v>
       </c>
@@ -2383,17 +2386,17 @@
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="64"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="58"/>
       <c r="E17" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
       <c r="J17" s="36" t="s">
         <v>0</v>
       </c>
@@ -2401,11 +2404,11 @@
         <v>99</v>
       </c>
       <c r="L17" s="85"/>
-      <c r="M17" s="70" t="s">
+      <c r="M17" s="81" t="s">
         <v>147</v>
       </c>
-      <c r="N17" s="71"/>
-      <c r="O17" s="82"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="80"/>
       <c r="P17" s="40" t="s">
         <v>183</v>
       </c>
@@ -2414,19 +2417,19 @@
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="C18" s="64"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="58" t="s">
         <v>242</v>
       </c>
       <c r="E18" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
       <c r="J18" s="36" t="s">
         <v>95</v>
       </c>
@@ -2440,7 +2443,7 @@
       <c r="N18" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="O18" s="82"/>
+      <c r="O18" s="80"/>
       <c r="P18" s="40" t="s">
         <v>184</v>
       </c>
@@ -2449,17 +2452,17 @@
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="64"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="58"/>
       <c r="E19" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
       <c r="J19" s="36" t="s">
         <v>96</v>
       </c>
@@ -2473,7 +2476,7 @@
       <c r="N19" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="O19" s="82"/>
+      <c r="O19" s="80"/>
       <c r="P19" s="40" t="s">
         <v>185</v>
       </c>
@@ -2482,19 +2485,19 @@
       </c>
     </row>
     <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="68" t="s">
         <v>247</v>
       </c>
-      <c r="C20" s="64"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="58" t="s">
         <v>242</v>
       </c>
       <c r="E20" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
       <c r="J20" s="36" t="s">
         <v>102</v>
       </c>
@@ -2508,7 +2511,7 @@
       <c r="N20" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="O20" s="82"/>
+      <c r="O20" s="80"/>
       <c r="P20" s="36" t="s">
         <v>190</v>
       </c>
@@ -2517,17 +2520,17 @@
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="68" t="s">
         <v>248</v>
       </c>
-      <c r="C21" s="64"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="39"/>
       <c r="E21" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
       <c r="J21" s="36" t="s">
         <v>97</v>
       </c>
@@ -2541,7 +2544,7 @@
       <c r="N21" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="O21" s="82"/>
+      <c r="O21" s="80"/>
       <c r="P21" s="40" t="s">
         <v>191</v>
       </c>
@@ -2550,10 +2553,10 @@
       </c>
     </row>
     <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="87"/>
+      <c r="C22" s="67"/>
       <c r="D22" s="58">
         <v>2</v>
       </c>
@@ -2564,7 +2567,7 @@
         <v>145</v>
       </c>
       <c r="G22" s="83"/>
-      <c r="H22" s="64"/>
+      <c r="H22" s="68"/>
       <c r="J22" s="27" t="s">
         <v>108</v>
       </c>
@@ -2578,7 +2581,7 @@
       <c r="N22" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="O22" s="82"/>
+      <c r="O22" s="80"/>
       <c r="P22" s="40" t="s">
         <v>192</v>
       </c>
@@ -2587,21 +2590,21 @@
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
       <c r="D23" s="58">
         <v>4</v>
       </c>
       <c r="E23" s="83"/>
       <c r="F23" s="83"/>
       <c r="G23" s="83"/>
-      <c r="H23" s="64"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="82"/>
+      <c r="H23" s="68"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="80"/>
       <c r="P23" s="40" t="s">
         <v>193</v>
       </c>
@@ -2610,19 +2613,19 @@
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
       <c r="D24" s="58"/>
       <c r="E24" s="83"/>
       <c r="F24" s="83"/>
       <c r="G24" s="83"/>
-      <c r="H24" s="64"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="77"/>
-      <c r="O24" s="82"/>
+      <c r="H24" s="68"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="80"/>
       <c r="P24" s="27" t="s">
         <v>199</v>
       </c>
@@ -2631,19 +2634,19 @@
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="87"/>
-      <c r="C25" s="87"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
       <c r="D25" s="58"/>
       <c r="E25" s="83"/>
       <c r="F25" s="83"/>
       <c r="G25" s="83"/>
-      <c r="H25" s="64"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="76"/>
-      <c r="N25" s="77"/>
-      <c r="O25" s="82"/>
+      <c r="H25" s="68"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="80"/>
       <c r="P25" s="27" t="s">
         <v>203</v>
       </c>
@@ -2652,19 +2655,19 @@
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="87"/>
-      <c r="C26" s="87"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
       <c r="D26" s="58"/>
       <c r="E26" s="83"/>
       <c r="F26" s="83"/>
       <c r="G26" s="83"/>
-      <c r="H26" s="64"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="82"/>
+      <c r="H26" s="68"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="80"/>
       <c r="P26" s="27" t="s">
         <v>204</v>
       </c>
@@ -2673,19 +2676,19 @@
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
       <c r="D27" s="58"/>
       <c r="E27" s="83"/>
       <c r="F27" s="83"/>
       <c r="G27" s="83"/>
-      <c r="H27" s="64"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="82"/>
+      <c r="H27" s="68"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="80"/>
       <c r="P27" s="27" t="s">
         <v>205</v>
       </c>
@@ -2694,19 +2697,19 @@
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="87"/>
-      <c r="C28" s="87"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
       <c r="D28" s="58"/>
       <c r="E28" s="83"/>
       <c r="F28" s="83"/>
       <c r="G28" s="83"/>
-      <c r="H28" s="64"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="82"/>
+      <c r="H28" s="68"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="80"/>
       <c r="P28" s="27" t="s">
         <v>207</v>
       </c>
@@ -2715,19 +2718,19 @@
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="87"/>
-      <c r="C29" s="87"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
       <c r="D29" s="58"/>
       <c r="E29" s="83"/>
       <c r="F29" s="83"/>
       <c r="G29" s="83"/>
-      <c r="H29" s="64"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="76"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="82"/>
+      <c r="H29" s="68"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="80"/>
       <c r="P29" s="27" t="s">
         <v>206</v>
       </c>
@@ -2736,12 +2739,12 @@
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J30" s="75"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="82"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="80"/>
       <c r="P30" s="27" t="s">
         <v>208</v>
       </c>
@@ -2750,12 +2753,12 @@
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J31" s="75"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="77"/>
-      <c r="O31" s="82"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="75"/>
+      <c r="O31" s="80"/>
       <c r="P31" s="27" t="s">
         <v>209</v>
       </c>
@@ -2764,12 +2767,12 @@
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J32" s="75"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="77"/>
-      <c r="O32" s="82"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="80"/>
       <c r="P32" s="27" t="s">
         <v>210</v>
       </c>
@@ -2778,12 +2781,12 @@
       </c>
     </row>
     <row r="33" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J33" s="75"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="77"/>
-      <c r="O33" s="82"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="75"/>
+      <c r="O33" s="80"/>
       <c r="P33" s="27" t="s">
         <v>211</v>
       </c>
@@ -2792,12 +2795,12 @@
       </c>
     </row>
     <row r="34" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J34" s="75"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="77"/>
-      <c r="O34" s="82"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="80"/>
       <c r="P34" s="27" t="s">
         <v>212</v>
       </c>
@@ -2806,12 +2809,12 @@
       </c>
     </row>
     <row r="35" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J35" s="75"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="76"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="82"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="80"/>
       <c r="P35" s="27" t="s">
         <v>213</v>
       </c>
@@ -2820,12 +2823,12 @@
       </c>
     </row>
     <row r="36" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J36" s="75"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="76"/>
-      <c r="N36" s="77"/>
-      <c r="O36" s="82"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="74"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="74"/>
+      <c r="N36" s="75"/>
+      <c r="O36" s="80"/>
       <c r="P36" s="27" t="s">
         <v>222</v>
       </c>
@@ -2834,12 +2837,12 @@
       </c>
     </row>
     <row r="37" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J37" s="75"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="76"/>
-      <c r="M37" s="76"/>
-      <c r="N37" s="77"/>
-      <c r="O37" s="82"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="75"/>
+      <c r="O37" s="80"/>
       <c r="P37" s="27" t="s">
         <v>223</v>
       </c>
@@ -2848,12 +2851,12 @@
       </c>
     </row>
     <row r="38" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J38" s="78"/>
-      <c r="K38" s="79"/>
-      <c r="L38" s="79"/>
-      <c r="M38" s="79"/>
-      <c r="N38" s="80"/>
-      <c r="O38" s="82"/>
+      <c r="J38" s="76"/>
+      <c r="K38" s="77"/>
+      <c r="L38" s="77"/>
+      <c r="M38" s="77"/>
+      <c r="N38" s="78"/>
+      <c r="O38" s="80"/>
       <c r="P38" s="27" t="s">
         <v>224</v>
       </c>
@@ -2871,23 +2874,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B22:C29"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F13:H21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="J23:N38"/>
-    <mergeCell ref="O3:O38"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="H22:H29"/>
-    <mergeCell ref="E22:E29"/>
-    <mergeCell ref="F22:G29"/>
-    <mergeCell ref="L3:L22"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M17:N17"/>
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -2902,6 +2888,23 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="J23:N38"/>
+    <mergeCell ref="O3:O38"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="H22:H29"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="F22:G29"/>
+    <mergeCell ref="L3:L22"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="B22:C29"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F13:H21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2933,118 +2936,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="64" t="s">
+      <c r="A1" s="69"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64" t="s">
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64" t="s">
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64" t="s">
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64" t="s">
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="68"/>
+      <c r="AI1" s="68"/>
+      <c r="AJ1" s="68"/>
+      <c r="AK1" s="68"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="90" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90" t="s">
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90" t="s">
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="64" t="s">
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64" t="s">
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
       <c r="R2" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="S2" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="90" t="s">
+      <c r="S2" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="64" t="s">
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="91" t="s">
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="64" t="s">
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="95"/>
+      <c r="AC2" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64" t="s">
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64" t="s">
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="68"/>
+      <c r="AI2" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
+      <c r="AJ2" s="68"/>
+      <c r="AK2" s="68"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -3099,7 +3102,7 @@
         <v>37</v>
       </c>
       <c r="R3" s="83"/>
-      <c r="S3" s="89"/>
+      <c r="S3" s="96"/>
       <c r="T3" s="16" t="s">
         <v>61</v>
       </c>
@@ -6663,12 +6666,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="S1:AK1"/>
-    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:V2"/>
@@ -6682,6 +6679,12 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="C1:E1"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="S1:AK1"/>
+    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6692,8 +6695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE66"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J63" sqref="I63:J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6713,16 +6716,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -6753,11 +6756,11 @@
       <c r="E2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="95" t="s">
+      <c r="F2" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -6827,19 +6830,19 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
@@ -6864,16 +6867,16 @@
       <c r="E6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="97" t="s">
+      <c r="F6" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="98"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="97" t="s">
+      <c r="G6" s="105"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="98"/>
-      <c r="K6" s="99"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="106"/>
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
@@ -6909,22 +6912,22 @@
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -6949,21 +6952,21 @@
       <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="95" t="s">
+      <c r="F9" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="96" t="s">
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96" t="s">
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="98"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -7017,19 +7020,19 @@
       <c r="X11" s="10"/>
     </row>
     <row r="12" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
@@ -7054,16 +7057,16 @@
       <c r="E13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="95" t="s">
+      <c r="F13" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="96" t="s">
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="96"/>
-      <c r="K13" s="96"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
@@ -7173,19 +7176,19 @@
       <c r="X16" s="10"/>
     </row>
     <row r="17" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
@@ -7210,16 +7213,16 @@
       <c r="E18" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="95" t="s">
+      <c r="F18" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="96" t="s">
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
     </row>
     <row r="19" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
@@ -7256,19 +7259,19 @@
       <c r="X20" s="10"/>
     </row>
     <row r="21" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
@@ -7293,16 +7296,16 @@
       <c r="E22" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="95" t="s">
+      <c r="F22" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="96" t="s">
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="96"/>
-      <c r="K22" s="96"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="98"/>
     </row>
     <row r="23" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
@@ -7343,22 +7346,22 @@
     <row r="25" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="94" t="s">
+      <c r="A27" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="B27" s="94"/>
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="94"/>
-      <c r="M27" s="94"/>
-      <c r="N27" s="94"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="99"/>
     </row>
     <row r="28" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
@@ -7376,44 +7379,44 @@
       <c r="E28" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="95" t="s">
+      <c r="F28" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="95"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="96" t="s">
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96" t="s">
+      <c r="J28" s="98"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="M28" s="96"/>
-      <c r="N28" s="96"/>
+      <c r="M28" s="98"/>
+      <c r="N28" s="98"/>
     </row>
     <row r="29" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="94" t="s">
+      <c r="A31" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="94"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="94"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="94"/>
-      <c r="L31" s="94"/>
-      <c r="M31" s="94"/>
-      <c r="N31" s="94"/>
-      <c r="O31" s="94"/>
-      <c r="P31" s="94"/>
-      <c r="Q31" s="94"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="99"/>
+      <c r="M31" s="99"/>
+      <c r="N31" s="99"/>
+      <c r="O31" s="99"/>
+      <c r="P31" s="99"/>
+      <c r="Q31" s="99"/>
     </row>
     <row r="32" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
@@ -7431,26 +7434,26 @@
       <c r="E32" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="97" t="s">
+      <c r="F32" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="98"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="97" t="s">
+      <c r="G32" s="105"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="J32" s="98"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="96" t="s">
+      <c r="J32" s="105"/>
+      <c r="K32" s="106"/>
+      <c r="L32" s="98" t="s">
         <v>125</v>
       </c>
-      <c r="M32" s="96"/>
-      <c r="N32" s="96"/>
-      <c r="O32" s="96" t="s">
+      <c r="M32" s="98"/>
+      <c r="N32" s="98"/>
+      <c r="O32" s="98" t="s">
         <v>126</v>
       </c>
-      <c r="P32" s="96"/>
-      <c r="Q32" s="96"/>
+      <c r="P32" s="98"/>
+      <c r="Q32" s="98"/>
       <c r="T32" s="54"/>
       <c r="U32" s="54"/>
       <c r="V32" s="54"/>
@@ -7518,14 +7521,14 @@
     </row>
     <row r="34" spans="1:24" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="94" t="s">
+      <c r="A35" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="94"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
@@ -7599,12 +7602,12 @@
       <c r="X38" s="10"/>
     </row>
     <row r="39" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="94" t="s">
+      <c r="A39" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="94"/>
-      <c r="C39" s="94"/>
-      <c r="D39" s="94"/>
+      <c r="B39" s="99"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="99"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
@@ -7676,15 +7679,15 @@
       <c r="K42" s="11"/>
     </row>
     <row r="43" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="100" t="s">
+      <c r="A43" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="101"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="101"/>
-      <c r="E43" s="101"/>
-      <c r="F43" s="101"/>
-      <c r="G43" s="102"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="102"/>
+      <c r="D43" s="102"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="102"/>
+      <c r="G43" s="103"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
       <c r="J43" s="10"/>
@@ -7704,11 +7707,11 @@
       <c r="D44" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="96" t="s">
+      <c r="E44" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="96"/>
-      <c r="G44" s="96"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="98"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
       <c r="J44" s="10"/>
@@ -7924,6 +7927,21 @@
     <row r="66" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
     <mergeCell ref="E44:G44"/>
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="F22:H22"/>
@@ -7940,21 +7958,6 @@
     <mergeCell ref="I32:K32"/>
     <mergeCell ref="L32:N32"/>
     <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -7975,8 +7978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4658AC4-6667-4045-B0FE-42E281567C35}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8023,11 +8026,11 @@
       <c r="E2" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="96" t="s">
+      <c r="F2" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
       <c r="I2" s="61" t="s">
         <v>251</v>
       </c>
@@ -8039,6 +8042,9 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="38" t="s">
+        <v>134</v>
+      </c>
       <c r="D3" s="38">
         <v>4</v>
       </c>
@@ -8055,13 +8061,13 @@
         <v>0</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -8084,7 +8090,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F55610B-D925-4735-AE3D-EBBD0AD81ACC}">
-  <dimension ref="A1:AG23"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
@@ -8135,35 +8141,35 @@
       <c r="S1" s="108"/>
     </row>
     <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="110" t="s">
-        <v>257</v>
-      </c>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="112"/>
-      <c r="AB2" s="113" t="s">
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="111" t="s">
+        <v>254</v>
+      </c>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="113"/>
+      <c r="AB2" s="117" t="s">
         <v>119</v>
       </c>
-      <c r="AC2" s="114"/>
-      <c r="AD2" s="114"/>
-      <c r="AE2" s="114"/>
-      <c r="AF2" s="114"/>
-      <c r="AG2" s="115"/>
+      <c r="AC2" s="118"/>
+      <c r="AD2" s="118"/>
+      <c r="AE2" s="118"/>
+      <c r="AF2" s="118"/>
+      <c r="AG2" s="119"/>
     </row>
     <row r="3" spans="1:33" s="29" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="62" t="s">
@@ -8181,16 +8187,16 @@
       <c r="E3" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="104" t="s">
+      <c r="F3" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="105"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="116" t="s">
+      <c r="G3" s="127"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="117"/>
-      <c r="K3" s="118"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="130"/>
       <c r="L3" s="55" t="s">
         <v>245</v>
       </c>
@@ -8209,16 +8215,16 @@
       <c r="Q3" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="R3" s="109" t="s">
+      <c r="R3" s="131" t="s">
         <v>118</v>
       </c>
-      <c r="S3" s="109"/>
-      <c r="AB3" s="119"/>
-      <c r="AC3" s="120"/>
-      <c r="AD3" s="120"/>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="120"/>
-      <c r="AG3" s="121"/>
+      <c r="S3" s="131"/>
+      <c r="AB3" s="120"/>
+      <c r="AC3" s="121"/>
+      <c r="AD3" s="121"/>
+      <c r="AE3" s="121"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="122"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
@@ -8260,17 +8266,17 @@
         <f>140000</f>
         <v>140000</v>
       </c>
-      <c r="N4" s="122"/>
+      <c r="N4" s="63"/>
       <c r="O4" s="18"/>
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
-      <c r="AB4" s="119"/>
-      <c r="AC4" s="120"/>
-      <c r="AD4" s="120"/>
-      <c r="AE4" s="120"/>
-      <c r="AF4" s="120"/>
-      <c r="AG4" s="121"/>
+      <c r="AB4" s="120"/>
+      <c r="AC4" s="121"/>
+      <c r="AD4" s="121"/>
+      <c r="AE4" s="121"/>
+      <c r="AF4" s="121"/>
+      <c r="AG4" s="122"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
@@ -8319,20 +8325,20 @@
       <c r="Q5" s="38"/>
       <c r="R5" s="38"/>
       <c r="S5" s="38"/>
-      <c r="AB5" s="119"/>
-      <c r="AC5" s="120"/>
-      <c r="AD5" s="120"/>
-      <c r="AE5" s="120"/>
-      <c r="AF5" s="120"/>
-      <c r="AG5" s="121"/>
+      <c r="AB5" s="120"/>
+      <c r="AC5" s="121"/>
+      <c r="AD5" s="121"/>
+      <c r="AE5" s="121"/>
+      <c r="AF5" s="121"/>
+      <c r="AG5" s="122"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AB6" s="119"/>
-      <c r="AC6" s="120"/>
-      <c r="AD6" s="120"/>
-      <c r="AE6" s="120"/>
-      <c r="AF6" s="120"/>
-      <c r="AG6" s="121"/>
+      <c r="AB6" s="120"/>
+      <c r="AC6" s="121"/>
+      <c r="AD6" s="121"/>
+      <c r="AE6" s="121"/>
+      <c r="AF6" s="121"/>
+      <c r="AG6" s="122"/>
     </row>
     <row r="7" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="107" t="s">
@@ -8355,40 +8361,40 @@
       <c r="P7" s="108"/>
       <c r="Q7" s="108"/>
       <c r="R7" s="108"/>
-      <c r="AB7" s="119"/>
-      <c r="AC7" s="120"/>
-      <c r="AD7" s="120"/>
-      <c r="AE7" s="120"/>
-      <c r="AF7" s="120"/>
-      <c r="AG7" s="121"/>
+      <c r="AB7" s="120"/>
+      <c r="AC7" s="121"/>
+      <c r="AD7" s="121"/>
+      <c r="AE7" s="121"/>
+      <c r="AF7" s="121"/>
+      <c r="AG7" s="122"/>
     </row>
     <row r="8" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="94"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="123" t="s">
-        <v>258</v>
-      </c>
-      <c r="O8" s="123"/>
-      <c r="P8" s="123"/>
-      <c r="Q8" s="123"/>
-      <c r="R8" s="123"/>
-      <c r="AB8" s="119"/>
-      <c r="AC8" s="120"/>
-      <c r="AD8" s="120"/>
-      <c r="AE8" s="120"/>
-      <c r="AF8" s="120"/>
-      <c r="AG8" s="121"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="126" t="s">
+        <v>255</v>
+      </c>
+      <c r="O8" s="126"/>
+      <c r="P8" s="126"/>
+      <c r="Q8" s="126"/>
+      <c r="R8" s="126"/>
+      <c r="AB8" s="120"/>
+      <c r="AC8" s="121"/>
+      <c r="AD8" s="121"/>
+      <c r="AE8" s="121"/>
+      <c r="AF8" s="121"/>
+      <c r="AG8" s="122"/>
     </row>
     <row r="9" spans="1:33" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="62" t="s">
@@ -8406,16 +8412,16 @@
       <c r="E9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="104" t="s">
+      <c r="F9" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="105"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="116" t="s">
+      <c r="G9" s="127"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="117"/>
-      <c r="K9" s="118"/>
+      <c r="J9" s="129"/>
+      <c r="K9" s="130"/>
       <c r="L9" s="32" t="s">
         <v>112</v>
       </c>
@@ -8431,16 +8437,16 @@
       <c r="P9" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="Q9" s="104" t="s">
+      <c r="Q9" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="R9" s="106"/>
-      <c r="AB9" s="119"/>
-      <c r="AC9" s="120"/>
-      <c r="AD9" s="120"/>
-      <c r="AE9" s="120"/>
-      <c r="AF9" s="120"/>
-      <c r="AG9" s="121"/>
+      <c r="R9" s="110"/>
+      <c r="AB9" s="120"/>
+      <c r="AC9" s="121"/>
+      <c r="AD9" s="121"/>
+      <c r="AE9" s="121"/>
+      <c r="AF9" s="121"/>
+      <c r="AG9" s="122"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
@@ -8481,12 +8487,12 @@
         <v>6000</v>
       </c>
       <c r="M10" s="24"/>
-      <c r="AB10" s="119"/>
-      <c r="AC10" s="120"/>
-      <c r="AD10" s="120"/>
-      <c r="AE10" s="120"/>
-      <c r="AF10" s="120"/>
-      <c r="AG10" s="121"/>
+      <c r="AB10" s="120"/>
+      <c r="AC10" s="121"/>
+      <c r="AD10" s="121"/>
+      <c r="AE10" s="121"/>
+      <c r="AF10" s="121"/>
+      <c r="AG10" s="122"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
@@ -8526,21 +8532,21 @@
         <f>10000</f>
         <v>10000</v>
       </c>
-      <c r="AB11" s="119"/>
-      <c r="AC11" s="120"/>
-      <c r="AD11" s="120"/>
-      <c r="AE11" s="120"/>
-      <c r="AF11" s="120"/>
-      <c r="AG11" s="121"/>
+      <c r="AB11" s="120"/>
+      <c r="AC11" s="121"/>
+      <c r="AD11" s="121"/>
+      <c r="AE11" s="121"/>
+      <c r="AF11" s="121"/>
+      <c r="AG11" s="122"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="Q12" s="38"/>
-      <c r="AB12" s="119"/>
-      <c r="AC12" s="120"/>
-      <c r="AD12" s="120"/>
-      <c r="AE12" s="120"/>
-      <c r="AF12" s="120"/>
-      <c r="AG12" s="121"/>
+      <c r="AB12" s="120"/>
+      <c r="AC12" s="121"/>
+      <c r="AD12" s="121"/>
+      <c r="AE12" s="121"/>
+      <c r="AF12" s="121"/>
+      <c r="AG12" s="122"/>
     </row>
     <row r="13" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="107" t="s">
@@ -8570,43 +8576,43 @@
       <c r="W13" s="108"/>
       <c r="X13" s="108"/>
       <c r="Y13" s="108"/>
-      <c r="AB13" s="124"/>
-      <c r="AC13" s="125"/>
-      <c r="AD13" s="125"/>
-      <c r="AE13" s="125"/>
-      <c r="AF13" s="125"/>
-      <c r="AG13" s="126"/>
+      <c r="AB13" s="123"/>
+      <c r="AC13" s="124"/>
+      <c r="AD13" s="124"/>
+      <c r="AE13" s="124"/>
+      <c r="AF13" s="124"/>
+      <c r="AG13" s="125"/>
     </row>
     <row r="14" spans="1:33" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="100"/>
-      <c r="B14" s="101"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="101"/>
-      <c r="S14" s="102"/>
-      <c r="T14" s="110" t="s">
-        <v>259</v>
-      </c>
-      <c r="U14" s="111"/>
-      <c r="V14" s="111"/>
-      <c r="W14" s="111"/>
-      <c r="X14" s="111"/>
-      <c r="Y14" s="112"/>
-      <c r="Z14" s="127"/>
-      <c r="AA14" s="127"/>
+      <c r="A14" s="101"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="102"/>
+      <c r="N14" s="102"/>
+      <c r="O14" s="102"/>
+      <c r="P14" s="102"/>
+      <c r="Q14" s="102"/>
+      <c r="R14" s="102"/>
+      <c r="S14" s="103"/>
+      <c r="T14" s="111" t="s">
+        <v>256</v>
+      </c>
+      <c r="U14" s="112"/>
+      <c r="V14" s="112"/>
+      <c r="W14" s="112"/>
+      <c r="X14" s="112"/>
+      <c r="Y14" s="113"/>
+      <c r="Z14" s="64"/>
+      <c r="AA14" s="64"/>
     </row>
     <row r="15" spans="1:33" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="62" t="s">
@@ -8624,26 +8630,26 @@
       <c r="E15" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="87" t="s">
+      <c r="F15" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="128" t="s">
+        <v>258</v>
+      </c>
+      <c r="J15" s="129"/>
+      <c r="K15" s="130"/>
+      <c r="L15" s="114" t="s">
+        <v>259</v>
+      </c>
+      <c r="M15" s="115"/>
+      <c r="N15" s="116"/>
+      <c r="O15" s="114" t="s">
         <v>260</v>
       </c>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="116" t="s">
-        <v>261</v>
-      </c>
-      <c r="J15" s="117"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="128" t="s">
-        <v>262</v>
-      </c>
-      <c r="M15" s="129"/>
-      <c r="N15" s="130"/>
-      <c r="O15" s="128" t="s">
-        <v>263</v>
-      </c>
-      <c r="P15" s="129"/>
-      <c r="Q15" s="130"/>
+      <c r="P15" s="115"/>
+      <c r="Q15" s="116"/>
       <c r="R15" s="32" t="s">
         <v>73</v>
       </c>
@@ -8662,10 +8668,10 @@
       <c r="W15" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="X15" s="104" t="s">
+      <c r="X15" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="Y15" s="106"/>
+      <c r="Y15" s="110"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
@@ -8733,25 +8739,25 @@
       <c r="Q18" s="108"/>
     </row>
     <row r="19" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="131"/>
-      <c r="B19" s="132"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="132"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="132"/>
-      <c r="K19" s="132"/>
-      <c r="L19" s="110" t="s">
-        <v>257</v>
-      </c>
-      <c r="M19" s="111"/>
-      <c r="N19" s="111"/>
-      <c r="O19" s="111"/>
-      <c r="P19" s="111"/>
-      <c r="Q19" s="112"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="111" t="s">
+        <v>254</v>
+      </c>
+      <c r="M19" s="112"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="112"/>
+      <c r="Q19" s="113"/>
     </row>
     <row r="20" spans="1:20" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="60" t="s">
@@ -8769,16 +8775,16 @@
       <c r="E20" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="87" t="s">
+      <c r="F20" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="128" t="s">
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="114" t="s">
         <v>155</v>
       </c>
-      <c r="J20" s="129"/>
-      <c r="K20" s="130"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="116"/>
       <c r="L20" s="62" t="s">
         <v>113</v>
       </c>
@@ -8791,10 +8797,10 @@
       <c r="O20" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="P20" s="104" t="s">
+      <c r="P20" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="Q20" s="106"/>
+      <c r="Q20" s="110"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
@@ -8841,14 +8847,18 @@
       <c r="L23" s="38"/>
       <c r="M23" s="38"/>
     </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>261</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="A18:Q18"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:Q15"/>
     <mergeCell ref="AB2:AG13"/>
     <mergeCell ref="A8:M8"/>
     <mergeCell ref="N8:R8"/>
@@ -8864,11 +8874,12 @@
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="N2:S2"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="A18:Q18"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="P20:Q20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8891,21 +8902,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="99" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="F1" s="67" t="s">
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="F1" s="90" t="s">
         <v>152</v>
       </c>
-      <c r="G1" s="69"/>
-      <c r="I1" s="67" t="s">
+      <c r="G1" s="92"/>
+      <c r="I1" s="90" t="s">
         <v>234</v>
       </c>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="69"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="92"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
@@ -8923,12 +8934,12 @@
       <c r="G2" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="I2" s="103" t="s">
+      <c r="I2" s="132" t="s">
         <v>233</v>
       </c>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="50"/>
@@ -8940,10 +8951,10 @@
       <c r="G3" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="50"/>
@@ -8955,10 +8966,10 @@
       <c r="G4" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="50"/>
@@ -8970,10 +8981,10 @@
       <c r="G5" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="132"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="50"/>
@@ -8985,10 +8996,10 @@
       <c r="G6" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="132"/>
+      <c r="L6" s="132"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="50"/>

--- a/mbs-EP-v.1.0.2/Excel Files/mcpherson_2d/mcpherson_2d.xlsx
+++ b/mbs-EP-v.1.0.2/Excel Files/mcpherson_2d/mcpherson_2d.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.2\Excel Files\mcpherson_2d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEC0C89-A9C0-43BE-AC98-D1B07D02F635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536AEF19-A1F9-4FDE-B5AB-C90068EBB614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="264">
   <si>
     <t>Mass</t>
   </si>
@@ -828,9 +828,6 @@
     <t>Null Force Length</t>
   </si>
   <si>
-    <t>MKS</t>
-  </si>
-  <si>
     <t>Animation</t>
   </si>
   <si>
@@ -876,13 +873,13 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>@(x) -(0.01*exp(-3*x)*cos(30*x))</t>
-  </si>
-  <si>
-    <t>@(x)(0.03*exp(-3*x)*cos(30*x))</t>
-  </si>
-  <si>
-    <t>@(x)-(0.09*exp(-3*x)*cos(30*x))</t>
+    <t>MMKS</t>
+  </si>
+  <si>
+    <t>@(x) -(0.01*exp(-3*x)*cos(30*x))*10^3</t>
+  </si>
+  <si>
+    <t>@(x)0</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1172,9 +1169,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1307,81 +1301,108 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1393,19 +1414,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1417,85 +1441,76 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1937,8 +1952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE954C49-6E73-4D49-8054-42AF7A10140C}">
   <dimension ref="B2:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1957,923 +1972,940 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92"/>
-      <c r="J2" s="87" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79"/>
+      <c r="J2" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="41">
+      <c r="C3" s="76"/>
+      <c r="D3" s="40">
         <v>5</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="81" t="s">
+      <c r="J3" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="K3" s="82"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="81" t="s">
+      <c r="K3" s="81"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="N3" s="82"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="36" t="s">
+      <c r="N3" s="81"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="Q3" s="36" t="s">
+      <c r="Q3" s="35" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="41">
+      <c r="C4" s="76"/>
+      <c r="D4" s="40">
         <v>0.01</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="K4" s="36" t="s">
+      <c r="K4" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="L4" s="85"/>
-      <c r="M4" s="35" t="s">
+      <c r="L4" s="95"/>
+      <c r="M4" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="N4" s="36" t="s">
+      <c r="N4" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="O4" s="80"/>
-      <c r="P4" s="36" t="s">
+      <c r="O4" s="92"/>
+      <c r="P4" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="Q4" s="51" t="s">
+      <c r="Q4" s="50" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="41" t="s">
+      <c r="C5" s="76"/>
+      <c r="D5" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="36" t="s">
+      <c r="J5" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="L5" s="85"/>
-      <c r="M5" s="36" t="s">
+      <c r="L5" s="95"/>
+      <c r="M5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="36" t="s">
+      <c r="N5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="80"/>
-      <c r="P5" s="36" t="s">
+      <c r="O5" s="92"/>
+      <c r="P5" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="Q5" s="51" t="s">
+      <c r="Q5" s="50" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="41" t="s">
+      <c r="C6" s="76"/>
+      <c r="D6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="36" t="s">
+      <c r="J6" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="K6" s="36" t="s">
+      <c r="K6" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="L6" s="85"/>
-      <c r="M6" s="36" t="s">
+      <c r="L6" s="95"/>
+      <c r="M6" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="N6" s="36" t="s">
+      <c r="N6" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="O6" s="80"/>
-      <c r="P6" s="36" t="s">
+      <c r="O6" s="92"/>
+      <c r="P6" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="Q6" s="51" t="s">
+      <c r="Q6" s="50" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="41">
-        <v>-9.8064999999999998</v>
-      </c>
-      <c r="E7" s="42" t="s">
+      <c r="C7" s="76"/>
+      <c r="D7" s="67">
+        <v>-9806.5</v>
+      </c>
+      <c r="E7" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J7" s="36" t="s">
+      <c r="J7" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="K7" s="36" t="s">
+      <c r="K7" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="85"/>
-      <c r="M7" s="36" t="s">
+      <c r="L7" s="95"/>
+      <c r="M7" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="36" t="s">
+      <c r="N7" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="80"/>
-      <c r="P7" s="36" t="s">
+      <c r="O7" s="92"/>
+      <c r="P7" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="Q7" s="51" t="s">
+      <c r="Q7" s="50" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="88" t="s">
+      <c r="B8" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="89"/>
-      <c r="D8" s="41" t="s">
+      <c r="C8" s="76"/>
+      <c r="D8" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" s="95"/>
+      <c r="M8" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="92"/>
+      <c r="P8" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q8" s="50" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="76"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" s="95"/>
+      <c r="M9" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="92"/>
+      <c r="P9" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q9" s="50" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J10" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" s="95"/>
+      <c r="M10" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="92"/>
+      <c r="P10" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q10" s="50" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J11" s="43"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="N11" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" s="92"/>
+      <c r="P11" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q11" s="50" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="N12" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="O12" s="92"/>
+      <c r="P12" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q12" s="50" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="74"/>
+      <c r="D13" s="57" t="s">
+        <v>242</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="92"/>
+      <c r="P13" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q13" s="50" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="74"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="N14" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="O14" s="92"/>
+      <c r="P14" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q14" s="50" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="74"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="J15" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15" s="81"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="92"/>
+      <c r="P15" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q15" s="50" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="74"/>
+      <c r="D16" s="57" t="s">
+        <v>242</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="J16" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="L16" s="95"/>
+      <c r="M16" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="N16" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="O16" s="92"/>
+      <c r="P16" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q16" s="50" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="74"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="J17" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="95"/>
+      <c r="M17" s="80" t="s">
+        <v>147</v>
+      </c>
+      <c r="N17" s="81"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q17" s="50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="74"/>
+      <c r="D18" s="57" t="s">
+        <v>242</v>
+      </c>
+      <c r="E18" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="J18" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="K18" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="L18" s="95"/>
+      <c r="M18" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="N18" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="O18" s="92"/>
+      <c r="P18" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q18" s="50" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="74"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="J19" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="K19" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="95"/>
+      <c r="M19" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="N19" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="O19" s="92"/>
+      <c r="P19" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q19" s="50" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="74" t="s">
         <v>246</v>
       </c>
-      <c r="E8" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="J8" s="36" t="s">
+      <c r="C20" s="74"/>
+      <c r="D20" s="57" t="s">
+        <v>242</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="98"/>
+      <c r="J20" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="K8" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="L8" s="85"/>
-      <c r="M8" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" s="80"/>
-      <c r="P8" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q8" s="51" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="88" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42" t="s">
+      <c r="K20" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="L20" s="95"/>
+      <c r="M20" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="N20" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="O20" s="92"/>
+      <c r="P20" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q20" s="50" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="74" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="74"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+      <c r="J21" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="K9" s="36" t="s">
+      <c r="K21" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="L9" s="85"/>
-      <c r="M9" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="N9" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="O9" s="80"/>
-      <c r="P9" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q9" s="51" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J10" s="27" t="s">
+      <c r="L21" s="95"/>
+      <c r="M21" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="N21" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="O21" s="92"/>
+      <c r="P21" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q21" s="50" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="97" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="97"/>
+      <c r="D22" s="57">
+        <v>2</v>
+      </c>
+      <c r="E22" s="93" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" s="93" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22" s="93"/>
+      <c r="H22" s="74"/>
+      <c r="J22" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="K10" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="L10" s="85"/>
-      <c r="M10" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="O10" s="80"/>
-      <c r="P10" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q10" s="51" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J11" s="44"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="N11" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="O11" s="80"/>
-      <c r="P11" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q11" s="51" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="87" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="N12" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="O12" s="80"/>
-      <c r="P12" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q12" s="51" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="68" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="58" t="s">
-        <v>242</v>
-      </c>
-      <c r="E13" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="N13" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="O13" s="80"/>
-      <c r="P13" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q13" s="51" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="68" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="N14" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="O14" s="80"/>
-      <c r="P14" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q14" s="51" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="J15" s="81" t="s">
-        <v>93</v>
-      </c>
-      <c r="K15" s="82"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="N15" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="O15" s="80"/>
-      <c r="P15" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q15" s="51" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="58" t="s">
-        <v>242</v>
-      </c>
-      <c r="E16" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="J16" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="K16" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="L16" s="85"/>
-      <c r="M16" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="N16" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="O16" s="80"/>
-      <c r="P16" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q16" s="51" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="J17" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="L17" s="85"/>
-      <c r="M17" s="81" t="s">
-        <v>147</v>
-      </c>
-      <c r="N17" s="82"/>
-      <c r="O17" s="80"/>
-      <c r="P17" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q17" s="51" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="68" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" s="68"/>
-      <c r="D18" s="58" t="s">
-        <v>242</v>
-      </c>
-      <c r="E18" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="J18" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="K18" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="L18" s="85"/>
-      <c r="M18" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="N18" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="O18" s="80"/>
-      <c r="P18" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q18" s="51" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="J19" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="K19" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="85"/>
-      <c r="M19" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="N19" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="O19" s="80"/>
-      <c r="P19" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q19" s="51" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="68" t="s">
-        <v>247</v>
-      </c>
-      <c r="C20" s="68"/>
-      <c r="D20" s="58" t="s">
-        <v>242</v>
-      </c>
-      <c r="E20" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="J20" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="K20" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="L20" s="85"/>
-      <c r="M20" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="N20" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="O20" s="80"/>
-      <c r="P20" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q20" s="51" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="68" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="J21" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="K21" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="L21" s="85"/>
-      <c r="M21" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="N21" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="O21" s="80"/>
-      <c r="P21" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q21" s="51" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="67" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22" s="67"/>
-      <c r="D22" s="58">
-        <v>2</v>
-      </c>
-      <c r="E22" s="83" t="s">
-        <v>144</v>
-      </c>
-      <c r="F22" s="83" t="s">
-        <v>145</v>
-      </c>
-      <c r="G22" s="83"/>
-      <c r="H22" s="68"/>
-      <c r="J22" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="K22" s="27" t="s">
+      <c r="K22" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="L22" s="86"/>
-      <c r="M22" s="37" t="s">
+      <c r="L22" s="96"/>
+      <c r="M22" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="N22" s="36" t="s">
+      <c r="N22" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="O22" s="80"/>
-      <c r="P22" s="40" t="s">
+      <c r="O22" s="92"/>
+      <c r="P22" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="Q22" s="51" t="s">
+      <c r="Q22" s="50" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="58">
+      <c r="B23" s="97"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="57">
         <v>4</v>
       </c>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="68"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="80"/>
-      <c r="P23" s="40" t="s">
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="74"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="83"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="83"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="Q23" s="52" t="s">
+      <c r="Q23" s="51" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="68"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="27" t="s">
+      <c r="B24" s="97"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="74"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="Q24" s="52" t="s">
+      <c r="Q24" s="51" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="68"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="80"/>
-      <c r="P25" s="27" t="s">
+      <c r="B25" s="97"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="74"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="87"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="Q25" s="52" t="s">
+      <c r="Q25" s="51" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="68"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="80"/>
-      <c r="P26" s="27" t="s">
+      <c r="B26" s="97"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="74"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="Q26" s="52" t="s">
+      <c r="Q26" s="51" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="68"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="80"/>
-      <c r="P27" s="27" t="s">
+      <c r="B27" s="97"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="74"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="87"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="Q27" s="52" t="s">
+      <c r="Q27" s="51" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="68"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="75"/>
-      <c r="O28" s="80"/>
-      <c r="P28" s="27" t="s">
+      <c r="B28" s="97"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="74"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="87"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="Q28" s="52" t="s">
+      <c r="Q28" s="51" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="68"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="74"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="80"/>
-      <c r="P29" s="27" t="s">
+      <c r="B29" s="97"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="74"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="87"/>
+      <c r="O29" s="92"/>
+      <c r="P29" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="Q29" s="52" t="s">
+      <c r="Q29" s="51" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J30" s="73"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="80"/>
-      <c r="P30" s="27" t="s">
+      <c r="J30" s="85"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
+      <c r="N30" s="87"/>
+      <c r="O30" s="92"/>
+      <c r="P30" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="Q30" s="52" t="s">
+      <c r="Q30" s="51" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J31" s="73"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="75"/>
-      <c r="O31" s="80"/>
-      <c r="P31" s="27" t="s">
+      <c r="J31" s="85"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86"/>
+      <c r="N31" s="87"/>
+      <c r="O31" s="92"/>
+      <c r="P31" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="Q31" s="52" t="s">
+      <c r="Q31" s="51" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J32" s="73"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="75"/>
-      <c r="O32" s="80"/>
-      <c r="P32" s="27" t="s">
+      <c r="J32" s="85"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="87"/>
+      <c r="O32" s="92"/>
+      <c r="P32" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="Q32" s="52" t="s">
+      <c r="Q32" s="51" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="33" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J33" s="73"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="75"/>
-      <c r="O33" s="80"/>
-      <c r="P33" s="27" t="s">
+      <c r="J33" s="85"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="92"/>
+      <c r="P33" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="Q33" s="52" t="s">
+      <c r="Q33" s="51" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="34" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J34" s="73"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="80"/>
-      <c r="P34" s="27" t="s">
+      <c r="J34" s="85"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="86"/>
+      <c r="N34" s="87"/>
+      <c r="O34" s="92"/>
+      <c r="P34" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="Q34" s="52" t="s">
+      <c r="Q34" s="51" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="35" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J35" s="73"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="75"/>
-      <c r="O35" s="80"/>
-      <c r="P35" s="27" t="s">
+      <c r="J35" s="85"/>
+      <c r="K35" s="86"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="86"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="92"/>
+      <c r="P35" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="Q35" s="52" t="s">
+      <c r="Q35" s="51" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="36" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J36" s="73"/>
-      <c r="K36" s="74"/>
-      <c r="L36" s="74"/>
-      <c r="M36" s="74"/>
-      <c r="N36" s="75"/>
-      <c r="O36" s="80"/>
-      <c r="P36" s="27" t="s">
+      <c r="J36" s="85"/>
+      <c r="K36" s="86"/>
+      <c r="L36" s="86"/>
+      <c r="M36" s="86"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="92"/>
+      <c r="P36" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="Q36" s="52" t="s">
+      <c r="Q36" s="51" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="37" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J37" s="73"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="75"/>
-      <c r="O37" s="80"/>
-      <c r="P37" s="27" t="s">
+      <c r="J37" s="85"/>
+      <c r="K37" s="86"/>
+      <c r="L37" s="86"/>
+      <c r="M37" s="86"/>
+      <c r="N37" s="87"/>
+      <c r="O37" s="92"/>
+      <c r="P37" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="Q37" s="52" t="s">
+      <c r="Q37" s="51" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="38" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J38" s="76"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="77"/>
-      <c r="M38" s="77"/>
-      <c r="N38" s="78"/>
-      <c r="O38" s="80"/>
-      <c r="P38" s="27" t="s">
+      <c r="J38" s="88"/>
+      <c r="K38" s="89"/>
+      <c r="L38" s="89"/>
+      <c r="M38" s="89"/>
+      <c r="N38" s="90"/>
+      <c r="O38" s="92"/>
+      <c r="P38" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="Q38" s="52" t="s">
+      <c r="Q38" s="51" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="39" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="P39" s="27" t="s">
+      <c r="P39" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="Q39" s="52" t="s">
+      <c r="Q39" s="51" t="s">
         <v>229</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B22:C29"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F13:H21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="J23:N38"/>
+    <mergeCell ref="O3:O38"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="H22:H29"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="F22:G29"/>
+    <mergeCell ref="L3:L22"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M17:N17"/>
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -2888,23 +2920,6 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="J23:N38"/>
-    <mergeCell ref="O3:O38"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="H22:H29"/>
-    <mergeCell ref="E22:E29"/>
-    <mergeCell ref="F22:G29"/>
-    <mergeCell ref="L3:L22"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="B22:C29"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F13:H21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2917,7 +2932,7 @@
   <dimension ref="A1:AK196"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2936,118 +2951,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="69"/>
-      <c r="B1" s="69"/>
-      <c r="C1" s="68" t="s">
+      <c r="A1" s="98"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68" t="s">
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68" t="s">
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68" t="s">
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68" t="s">
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="68"/>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="68"/>
-      <c r="AI1" s="68"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="68"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="74"/>
+      <c r="AG1" s="74"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="74"/>
+      <c r="AJ1" s="74"/>
+      <c r="AK1" s="74"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="97" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97" t="s">
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97" t="s">
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="68" t="s">
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68" t="s">
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="83" t="s">
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="S2" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="97" t="s">
+      <c r="S2" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="68" t="s">
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="93" t="s">
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="AA2" s="94"/>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="68" t="s">
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="103"/>
+      <c r="AC2" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="68" t="s">
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="AG2" s="68"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68" t="s">
+      <c r="AG2" s="74"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
+      <c r="AJ2" s="74"/>
+      <c r="AK2" s="74"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -3101,8 +3116,8 @@
       <c r="Q3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="83"/>
-      <c r="S3" s="96"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="99"/>
       <c r="T3" s="16" t="s">
         <v>61</v>
       </c>
@@ -3112,49 +3127,49 @@
       <c r="V3" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="W3" s="25" t="s">
+      <c r="W3" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="X3" s="25" t="s">
+      <c r="X3" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="Y3" s="25" t="s">
+      <c r="Y3" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="Z3" s="25" t="s">
+      <c r="Z3" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="AA3" s="25" t="s">
+      <c r="AA3" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="AB3" s="25" t="s">
+      <c r="AB3" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="AC3" s="25" t="s">
+      <c r="AC3" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="AD3" s="25" t="s">
+      <c r="AD3" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="AE3" s="25" t="s">
+      <c r="AE3" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="AF3" s="25" t="s">
+      <c r="AF3" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="AG3" s="25" t="s">
+      <c r="AG3" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="AH3" s="25" t="s">
+      <c r="AH3" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="AI3" s="26" t="s">
+      <c r="AI3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="AJ3" s="26" t="s">
+      <c r="AJ3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="AK3" s="26" t="s">
+      <c r="AK3" s="25" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3165,109 +3180,109 @@
       <c r="B4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="56">
-        <v>0</v>
-      </c>
-      <c r="D4" s="56">
-        <v>0</v>
-      </c>
-      <c r="E4" s="56">
-        <v>0</v>
-      </c>
-      <c r="F4" s="53">
-        <v>0</v>
-      </c>
-      <c r="G4" s="53">
-        <v>0</v>
-      </c>
-      <c r="H4" s="53">
-        <v>0</v>
-      </c>
-      <c r="I4" s="53">
-        <v>0</v>
-      </c>
-      <c r="J4" s="53">
-        <v>0</v>
-      </c>
-      <c r="K4" s="53">
-        <v>0</v>
-      </c>
-      <c r="L4" s="53">
-        <v>0</v>
-      </c>
-      <c r="M4" s="53">
-        <v>0</v>
-      </c>
-      <c r="N4" s="53">
-        <v>0</v>
-      </c>
-      <c r="O4" s="53">
-        <v>0</v>
-      </c>
-      <c r="P4" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="56">
-        <v>0</v>
-      </c>
-      <c r="R4" s="56">
-        <v>0</v>
-      </c>
-      <c r="S4" s="56">
-        <v>0</v>
-      </c>
-      <c r="T4" s="56">
-        <v>0</v>
-      </c>
-      <c r="U4" s="56">
-        <v>0</v>
-      </c>
-      <c r="V4" s="56">
-        <v>0</v>
-      </c>
-      <c r="W4" s="53">
-        <v>0</v>
-      </c>
-      <c r="X4" s="53">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="53">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="53">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="53">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="28">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="28">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="28">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="28">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="28">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="28">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="53">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="53">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="53">
+      <c r="C4" s="55">
+        <v>0</v>
+      </c>
+      <c r="D4" s="66">
+        <v>0</v>
+      </c>
+      <c r="E4" s="66">
+        <v>0</v>
+      </c>
+      <c r="F4" s="52">
+        <v>0</v>
+      </c>
+      <c r="G4" s="52">
+        <v>0</v>
+      </c>
+      <c r="H4" s="52">
+        <v>0</v>
+      </c>
+      <c r="I4" s="52">
+        <v>0</v>
+      </c>
+      <c r="J4" s="52">
+        <v>0</v>
+      </c>
+      <c r="K4" s="52">
+        <v>0</v>
+      </c>
+      <c r="L4" s="52">
+        <v>0</v>
+      </c>
+      <c r="M4" s="52">
+        <v>0</v>
+      </c>
+      <c r="N4" s="52">
+        <v>0</v>
+      </c>
+      <c r="O4" s="52">
+        <v>0</v>
+      </c>
+      <c r="P4" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="55">
+        <v>0</v>
+      </c>
+      <c r="R4" s="55">
+        <v>0</v>
+      </c>
+      <c r="S4" s="55">
+        <v>0</v>
+      </c>
+      <c r="T4" s="55">
+        <v>0</v>
+      </c>
+      <c r="U4" s="55">
+        <v>0</v>
+      </c>
+      <c r="V4" s="55">
+        <v>0</v>
+      </c>
+      <c r="W4" s="52">
+        <v>0</v>
+      </c>
+      <c r="X4" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="52">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="52">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="52">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="52">
         <v>0</v>
       </c>
     </row>
@@ -3278,109 +3293,109 @@
       <c r="B5" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="C5" s="56">
-        <v>0</v>
-      </c>
-      <c r="D5" s="56">
-        <v>0.28448000000000001</v>
-      </c>
-      <c r="E5" s="56">
-        <v>0</v>
-      </c>
-      <c r="F5" s="53">
-        <v>0</v>
-      </c>
-      <c r="G5" s="53">
-        <v>0</v>
-      </c>
-      <c r="H5" s="53">
-        <v>0</v>
-      </c>
-      <c r="I5" s="53">
-        <v>0</v>
-      </c>
-      <c r="J5" s="53">
-        <v>0</v>
-      </c>
-      <c r="K5" s="53">
-        <v>0</v>
-      </c>
-      <c r="L5" s="53">
-        <v>0</v>
-      </c>
-      <c r="M5" s="53">
-        <v>0</v>
-      </c>
-      <c r="N5" s="53">
-        <v>0</v>
-      </c>
-      <c r="O5" s="53">
-        <v>0</v>
-      </c>
-      <c r="P5" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="56">
-        <v>0</v>
-      </c>
-      <c r="R5" s="56">
-        <v>0</v>
-      </c>
-      <c r="S5" s="56">
+      <c r="C5" s="66">
+        <v>0</v>
+      </c>
+      <c r="D5" s="66">
+        <v>284.48</v>
+      </c>
+      <c r="E5" s="66">
+        <v>0</v>
+      </c>
+      <c r="F5" s="52">
+        <v>0</v>
+      </c>
+      <c r="G5" s="52">
+        <v>0</v>
+      </c>
+      <c r="H5" s="52">
+        <v>0</v>
+      </c>
+      <c r="I5" s="52">
+        <v>0</v>
+      </c>
+      <c r="J5" s="52">
+        <v>0</v>
+      </c>
+      <c r="K5" s="52">
+        <v>0</v>
+      </c>
+      <c r="L5" s="52">
+        <v>0</v>
+      </c>
+      <c r="M5" s="52">
+        <v>0</v>
+      </c>
+      <c r="N5" s="52">
+        <v>0</v>
+      </c>
+      <c r="O5" s="52">
+        <v>0</v>
+      </c>
+      <c r="P5" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="55">
+        <v>0</v>
+      </c>
+      <c r="R5" s="55">
+        <v>0</v>
+      </c>
+      <c r="S5" s="55">
         <v>240</v>
       </c>
-      <c r="T5" s="56">
-        <v>0</v>
-      </c>
-      <c r="U5" s="56">
-        <v>0</v>
-      </c>
-      <c r="V5" s="56">
-        <v>17.850000000000001</v>
-      </c>
-      <c r="W5" s="53">
-        <v>0</v>
-      </c>
-      <c r="X5" s="53">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="53">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="53">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="53">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="28">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="28">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="28">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="28">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="28">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="28">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="53">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="53">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="53">
+      <c r="T5" s="55">
+        <v>0</v>
+      </c>
+      <c r="U5" s="55">
+        <v>0</v>
+      </c>
+      <c r="V5" s="68">
+        <v>17850000</v>
+      </c>
+      <c r="W5" s="52">
+        <v>0</v>
+      </c>
+      <c r="X5" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="52">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="27">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="27">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="52">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="52">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="52">
         <v>0</v>
       </c>
     </row>
@@ -3391,109 +3406,109 @@
       <c r="B6" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="17">
-        <v>0.27419300000000002</v>
-      </c>
-      <c r="D6" s="56">
-        <v>0.16611600000000001</v>
-      </c>
-      <c r="E6" s="56">
-        <v>0</v>
-      </c>
-      <c r="F6" s="53">
-        <v>0</v>
-      </c>
-      <c r="G6" s="53">
-        <v>0</v>
-      </c>
-      <c r="H6" s="53">
-        <v>0</v>
-      </c>
-      <c r="I6" s="53">
-        <v>0</v>
-      </c>
-      <c r="J6" s="53">
-        <v>0</v>
-      </c>
-      <c r="K6" s="53">
-        <v>0</v>
-      </c>
-      <c r="L6" s="53">
-        <v>0</v>
-      </c>
-      <c r="M6" s="53">
-        <v>0</v>
-      </c>
-      <c r="N6" s="53">
-        <v>0</v>
-      </c>
-      <c r="O6" s="53">
-        <v>0</v>
-      </c>
-      <c r="P6" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="56">
-        <v>0</v>
-      </c>
-      <c r="R6" s="56">
-        <v>0</v>
-      </c>
-      <c r="S6" s="56">
+      <c r="C6" s="66">
+        <v>274.19299999999998</v>
+      </c>
+      <c r="D6" s="66">
+        <v>166.11600000000001</v>
+      </c>
+      <c r="E6" s="66">
+        <v>0</v>
+      </c>
+      <c r="F6" s="52">
+        <v>0</v>
+      </c>
+      <c r="G6" s="52">
+        <v>0</v>
+      </c>
+      <c r="H6" s="52">
+        <v>0</v>
+      </c>
+      <c r="I6" s="52">
+        <v>0</v>
+      </c>
+      <c r="J6" s="52">
+        <v>0</v>
+      </c>
+      <c r="K6" s="52">
+        <v>0</v>
+      </c>
+      <c r="L6" s="52">
+        <v>0</v>
+      </c>
+      <c r="M6" s="52">
+        <v>0</v>
+      </c>
+      <c r="N6" s="52">
+        <v>0</v>
+      </c>
+      <c r="O6" s="52">
+        <v>0</v>
+      </c>
+      <c r="P6" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="55">
+        <v>0</v>
+      </c>
+      <c r="R6" s="55">
+        <v>0</v>
+      </c>
+      <c r="S6" s="55">
         <v>3</v>
       </c>
-      <c r="T6" s="56">
-        <v>0</v>
-      </c>
-      <c r="U6" s="56">
-        <v>0</v>
-      </c>
-      <c r="V6" s="56">
-        <v>0.03</v>
-      </c>
-      <c r="W6" s="53">
-        <v>0</v>
-      </c>
-      <c r="X6" s="53">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="53">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="53">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="53">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="53">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="53">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="53">
+      <c r="T6" s="55">
+        <v>0</v>
+      </c>
+      <c r="U6" s="55">
+        <v>0</v>
+      </c>
+      <c r="V6" s="68">
+        <v>30000</v>
+      </c>
+      <c r="W6" s="52">
+        <v>0</v>
+      </c>
+      <c r="X6" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="52">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="27">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="27">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="52">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="52">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="52">
         <v>0</v>
       </c>
     </row>
@@ -3504,109 +3519,109 @@
       <c r="B7" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="C7" s="56">
-        <v>0.48970999999999998</v>
-      </c>
-      <c r="D7" s="56">
+      <c r="C7" s="66">
+        <v>489.71</v>
+      </c>
+      <c r="D7" s="66">
+        <v>303.8723</v>
+      </c>
+      <c r="E7" s="66">
+        <v>0</v>
+      </c>
+      <c r="F7" s="52">
+        <v>0</v>
+      </c>
+      <c r="G7" s="52">
+        <v>0</v>
+      </c>
+      <c r="H7" s="52">
+        <v>0</v>
+      </c>
+      <c r="I7" s="52">
+        <v>0</v>
+      </c>
+      <c r="J7" s="52">
+        <v>0</v>
+      </c>
+      <c r="K7" s="52">
+        <v>0</v>
+      </c>
+      <c r="L7" s="52">
+        <v>0</v>
+      </c>
+      <c r="M7" s="52">
+        <v>0</v>
+      </c>
+      <c r="N7" s="52">
+        <v>0</v>
+      </c>
+      <c r="O7" s="52">
+        <v>0</v>
+      </c>
+      <c r="P7" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="55">
+        <v>1</v>
+      </c>
+      <c r="R7" s="55">
         <v>0.30387229999999998</v>
       </c>
-      <c r="E7" s="56">
-        <v>0</v>
-      </c>
-      <c r="F7" s="53">
-        <v>0</v>
-      </c>
-      <c r="G7" s="53">
-        <v>0</v>
-      </c>
-      <c r="H7" s="53">
-        <v>0</v>
-      </c>
-      <c r="I7" s="53">
-        <v>0</v>
-      </c>
-      <c r="J7" s="53">
-        <v>0</v>
-      </c>
-      <c r="K7" s="53">
-        <v>0</v>
-      </c>
-      <c r="L7" s="53">
-        <v>0</v>
-      </c>
-      <c r="M7" s="53">
-        <v>0</v>
-      </c>
-      <c r="N7" s="53">
-        <v>0</v>
-      </c>
-      <c r="O7" s="53">
-        <v>0</v>
-      </c>
-      <c r="P7" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="56">
-        <v>1</v>
-      </c>
-      <c r="R7" s="56">
-        <v>0.30387229999999998</v>
-      </c>
-      <c r="S7" s="56">
+      <c r="S7" s="55">
         <v>40</v>
       </c>
-      <c r="T7" s="56">
-        <v>0</v>
-      </c>
-      <c r="U7" s="56">
-        <v>0</v>
-      </c>
-      <c r="V7" s="56">
-        <v>1.58</v>
-      </c>
-      <c r="W7" s="53">
-        <v>0</v>
-      </c>
-      <c r="X7" s="53">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="53">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="53">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="53">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="53">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="53">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="53">
+      <c r="T7" s="55">
+        <v>0</v>
+      </c>
+      <c r="U7" s="55">
+        <v>0</v>
+      </c>
+      <c r="V7" s="68">
+        <v>1580000</v>
+      </c>
+      <c r="W7" s="52">
+        <v>0</v>
+      </c>
+      <c r="X7" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="52">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="52">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="52">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="52">
         <v>0</v>
       </c>
     </row>
@@ -6666,6 +6681,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="S1:AK1"/>
+    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:V2"/>
@@ -6679,12 +6700,6 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="S1:AK1"/>
-    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6695,8 +6710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE66"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J63" sqref="I63:J63"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6708,6 +6723,7 @@
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="32.85546875" customWidth="1"/>
     <col min="22" max="22" width="15.28515625" customWidth="1"/>
     <col min="23" max="23" width="16.7109375" customWidth="1"/>
@@ -6716,16 +6732,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -6741,26 +6757,26 @@
       <c r="X1" s="10"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="F2" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -6779,28 +6795,28 @@
       <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56">
         <v>2</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="56">
         <v>3</v>
       </c>
-      <c r="F3" s="57">
-        <v>0.122682</v>
-      </c>
-      <c r="G3" s="57">
-        <v>0.16611600000000001</v>
-      </c>
-      <c r="H3" s="57">
-        <v>0</v>
-      </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+      <c r="F3" s="69">
+        <v>122.682</v>
+      </c>
+      <c r="G3" s="69">
+        <v>166.11600000000001</v>
+      </c>
+      <c r="H3" s="56">
+        <v>0</v>
+      </c>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
@@ -6818,9 +6834,9 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
@@ -6830,19 +6846,19 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
@@ -6852,34 +6868,34 @@
       <c r="X5" s="10"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="104" t="s">
+      <c r="F6" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="105"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="104" t="s">
+      <c r="G6" s="108"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="105"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
@@ -6889,14 +6905,14 @@
       <c r="X6" s="10"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -6912,22 +6928,22 @@
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -6952,21 +6968,21 @@
       <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="100" t="s">
+      <c r="F9" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="98" t="s">
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98" t="s">
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="106"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -6977,19 +6993,19 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
@@ -7020,19 +7036,19 @@
       <c r="X11" s="10"/>
     </row>
     <row r="12" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="99"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
@@ -7057,16 +7073,16 @@
       <c r="E13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="100" t="s">
+      <c r="F13" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="98" t="s">
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
@@ -7076,97 +7092,97 @@
       <c r="X13" s="10"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
+      <c r="A14" s="37">
         <v>2</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="37">
         <v>3</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="37">
         <v>4</v>
       </c>
-      <c r="F14" s="38">
-        <f>0.4257</f>
-        <v>0.42570000000000002</v>
-      </c>
-      <c r="G14" s="38">
-        <f>0.166116</f>
-        <v>0.16611600000000001</v>
-      </c>
-      <c r="H14" s="38">
-        <v>0</v>
-      </c>
-      <c r="I14" s="38">
-        <f>0.4257</f>
-        <v>0.42570000000000002</v>
-      </c>
-      <c r="J14" s="38">
-        <f>0.166116</f>
-        <v>0.16611600000000001</v>
-      </c>
-      <c r="K14" s="38">
-        <v>0.1</v>
+      <c r="F14" s="37">
+        <f>425.7</f>
+        <v>425.7</v>
+      </c>
+      <c r="G14" s="37">
+        <f>166.116</f>
+        <v>166.11600000000001</v>
+      </c>
+      <c r="H14" s="37">
+        <v>0</v>
+      </c>
+      <c r="I14" s="37">
+        <f>425.7</f>
+        <v>425.7</v>
+      </c>
+      <c r="J14" s="37">
+        <f>166.116</f>
+        <v>166.11600000000001</v>
+      </c>
+      <c r="K14" s="70">
+        <v>100</v>
       </c>
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
-      <c r="U14" s="18">
+      <c r="U14" s="17">
         <v>1</v>
       </c>
-      <c r="V14" s="18" t="s">
+      <c r="V14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="W14" s="18" t="s">
+      <c r="W14" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="X14" s="18">
+      <c r="X14" s="17">
         <v>2</v>
       </c>
-      <c r="Y14" s="18">
+      <c r="Y14" s="17">
         <v>3</v>
       </c>
-      <c r="Z14" s="54">
+      <c r="Z14" s="53">
         <f>0.122682</f>
         <v>0.122682</v>
       </c>
-      <c r="AA14" s="54">
+      <c r="AA14" s="53">
         <f>0.166116</f>
         <v>0.16611600000000001</v>
       </c>
-      <c r="AB14" s="54">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="54">
+      <c r="AB14" s="53">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="53">
         <f>0.122682</f>
         <v>0.122682</v>
       </c>
-      <c r="AD14" s="54">
+      <c r="AD14" s="53">
         <f>0.166116</f>
         <v>0.16611600000000001</v>
       </c>
-      <c r="AE14" s="54">
+      <c r="AE14" s="53">
         <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
@@ -7176,19 +7192,19 @@
       <c r="X16" s="10"/>
     </row>
     <row r="17" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
@@ -7213,29 +7229,29 @@
       <c r="E18" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="100" t="s">
+      <c r="F18" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="98" t="s">
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="J18" s="98"/>
-      <c r="K18" s="98"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="106"/>
     </row>
     <row r="19" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
     </row>
     <row r="20" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
@@ -7259,19 +7275,19 @@
       <c r="X20" s="10"/>
     </row>
     <row r="21" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="99" t="s">
+      <c r="A21" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="99"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="104"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
@@ -7296,239 +7312,239 @@
       <c r="E22" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="100" t="s">
+      <c r="F22" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="98" t="s">
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="98"/>
-      <c r="K22" s="98"/>
-    </row>
-    <row r="23" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
+    </row>
+    <row r="23" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
         <v>5</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="17">
         <v>2</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="17">
         <v>1</v>
       </c>
-      <c r="F23" s="18">
-        <v>0</v>
-      </c>
-      <c r="G23" s="18">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="H23" s="18">
-        <v>0</v>
-      </c>
-      <c r="I23" s="18">
-        <v>0</v>
-      </c>
-      <c r="J23" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="K23" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="99" t="s">
+      <c r="F23" s="17">
+        <v>0</v>
+      </c>
+      <c r="G23" s="71">
+        <v>284</v>
+      </c>
+      <c r="H23" s="17">
+        <v>0</v>
+      </c>
+      <c r="I23" s="17">
+        <v>0</v>
+      </c>
+      <c r="J23" s="71">
+        <v>500</v>
+      </c>
+      <c r="K23" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:24" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="104" t="s">
         <v>122</v>
       </c>
-      <c r="B27" s="99"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="99"/>
-      <c r="N27" s="99"/>
-    </row>
-    <row r="28" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="B27" s="104"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="104"/>
+      <c r="M27" s="104"/>
+      <c r="N27" s="104"/>
+    </row>
+    <row r="28" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="100" t="s">
+      <c r="F28" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="100"/>
-      <c r="H28" s="100"/>
-      <c r="I28" s="98" t="s">
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="J28" s="98"/>
-      <c r="K28" s="98"/>
-      <c r="L28" s="98" t="s">
+      <c r="J28" s="106"/>
+      <c r="K28" s="106"/>
+      <c r="L28" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="M28" s="98"/>
-      <c r="N28" s="98"/>
-    </row>
-    <row r="29" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="99" t="s">
+      <c r="M28" s="106"/>
+      <c r="N28" s="106"/>
+    </row>
+    <row r="29" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:24" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="104" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="99"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="99"/>
-      <c r="L31" s="99"/>
-      <c r="M31" s="99"/>
-      <c r="N31" s="99"/>
-      <c r="O31" s="99"/>
-      <c r="P31" s="99"/>
-      <c r="Q31" s="99"/>
-    </row>
-    <row r="32" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
+      <c r="B31" s="104"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="104"/>
+      <c r="L31" s="104"/>
+      <c r="M31" s="104"/>
+      <c r="N31" s="104"/>
+      <c r="O31" s="104"/>
+      <c r="P31" s="104"/>
+      <c r="Q31" s="104"/>
+    </row>
+    <row r="32" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="30" t="s">
+      <c r="E32" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="104" t="s">
+      <c r="F32" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="105"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="104" t="s">
+      <c r="G32" s="108"/>
+      <c r="H32" s="109"/>
+      <c r="I32" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="J32" s="105"/>
-      <c r="K32" s="106"/>
-      <c r="L32" s="98" t="s">
+      <c r="J32" s="108"/>
+      <c r="K32" s="109"/>
+      <c r="L32" s="106" t="s">
         <v>125</v>
       </c>
-      <c r="M32" s="98"/>
-      <c r="N32" s="98"/>
-      <c r="O32" s="98" t="s">
+      <c r="M32" s="106"/>
+      <c r="N32" s="106"/>
+      <c r="O32" s="106" t="s">
         <v>126</v>
       </c>
-      <c r="P32" s="98"/>
-      <c r="Q32" s="98"/>
-      <c r="T32" s="54"/>
-      <c r="U32" s="54"/>
-      <c r="V32" s="54"/>
-    </row>
-    <row r="33" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18">
+      <c r="P32" s="106"/>
+      <c r="Q32" s="106"/>
+      <c r="T32" s="53"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="53"/>
+    </row>
+    <row r="33" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="17">
         <v>3</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="17">
         <v>2</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="17">
         <v>4</v>
       </c>
-      <c r="F33" s="54">
-        <f>0.26035</f>
-        <v>0.26035000000000003</v>
-      </c>
-      <c r="G33" s="54">
-        <f>0.69342</f>
-        <v>0.69342000000000004</v>
-      </c>
-      <c r="H33" s="54">
-        <v>0</v>
-      </c>
-      <c r="I33" s="54">
-        <f>0.41097</f>
-        <v>0.41097</v>
-      </c>
-      <c r="J33" s="54">
-        <v>0.19003</v>
-      </c>
-      <c r="K33" s="54">
-        <v>0</v>
-      </c>
-      <c r="L33" s="18">
-        <f>0.26035</f>
-        <v>0.26035000000000003</v>
-      </c>
-      <c r="M33" s="18">
-        <f>0.69342</f>
-        <v>0.69342000000000004</v>
-      </c>
-      <c r="N33" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="O33" s="38">
-        <v>0.16535</v>
-      </c>
-      <c r="P33" s="38">
-        <v>-0.52729999999999999</v>
-      </c>
-      <c r="Q33" s="38">
-        <v>0</v>
-      </c>
-      <c r="T33" s="38"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="38"/>
+      <c r="F33" s="53">
+        <f>260.35</f>
+        <v>260.35000000000002</v>
+      </c>
+      <c r="G33" s="53">
+        <f>693.42</f>
+        <v>693.42</v>
+      </c>
+      <c r="H33" s="53">
+        <v>0</v>
+      </c>
+      <c r="I33" s="53">
+        <f>410.97</f>
+        <v>410.97</v>
+      </c>
+      <c r="J33" s="72">
+        <v>190.03</v>
+      </c>
+      <c r="K33" s="53">
+        <v>0</v>
+      </c>
+      <c r="L33" s="17">
+        <f>260.35</f>
+        <v>260.35000000000002</v>
+      </c>
+      <c r="M33" s="17">
+        <f>693.42</f>
+        <v>693.42</v>
+      </c>
+      <c r="N33" s="71">
+        <v>100</v>
+      </c>
+      <c r="O33" s="70">
+        <v>165.35</v>
+      </c>
+      <c r="P33" s="70">
+        <v>-527.29999999999995</v>
+      </c>
+      <c r="Q33" s="37">
+        <v>0</v>
+      </c>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
     </row>
     <row r="34" spans="1:24" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="99" t="s">
+      <c r="A35" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="99"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
@@ -7568,12 +7584,12 @@
       <c r="K36" s="12"/>
     </row>
     <row r="37" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
@@ -7602,12 +7618,12 @@
       <c r="X38" s="10"/>
     </row>
     <row r="39" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="99" t="s">
+      <c r="A39" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="99"/>
-      <c r="C39" s="99"/>
-      <c r="D39" s="99"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="104"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
@@ -7679,15 +7695,15 @@
       <c r="K42" s="11"/>
     </row>
     <row r="43" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="101" t="s">
+      <c r="A43" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="102"/>
-      <c r="C43" s="102"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="103"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="111"/>
+      <c r="F43" s="111"/>
+      <c r="G43" s="112"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
       <c r="J43" s="10"/>
@@ -7707,11 +7723,11 @@
       <c r="D44" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="98" t="s">
+      <c r="E44" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="98"/>
-      <c r="G44" s="98"/>
+      <c r="F44" s="106"/>
+      <c r="G44" s="106"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
       <c r="J44" s="10"/>
@@ -7720,7 +7736,7 @@
     <row r="45" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="13">
@@ -7729,8 +7745,8 @@
       <c r="E45" s="13">
         <v>0</v>
       </c>
-      <c r="F45" s="13">
-        <v>0.28448000000000001</v>
+      <c r="F45" s="70">
+        <v>284.48</v>
       </c>
       <c r="G45" s="13">
         <v>0</v>
@@ -7741,7 +7757,7 @@
     <row r="46" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="13">
@@ -7751,8 +7767,8 @@
         <v>0</v>
       </c>
       <c r="F46" s="13">
-        <f>0.28448-0.118364</f>
-        <v>0.16611600000000001</v>
+        <f>(0.28448-0.118364)*10^3</f>
+        <v>166.11600000000001</v>
       </c>
       <c r="G46" s="13">
         <v>0</v>
@@ -7762,8 +7778,8 @@
     </row>
     <row r="47" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
-      <c r="B47" s="38" t="s">
-        <v>249</v>
+      <c r="B47" s="37" t="s">
+        <v>248</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="13">
@@ -7773,8 +7789,8 @@
         <v>0</v>
       </c>
       <c r="F47" s="13">
-        <f>0.288448+0.40894</f>
-        <v>0.69738800000000001</v>
+        <f>(0.288448+0.40894)*10^3</f>
+        <v>697.38800000000003</v>
       </c>
       <c r="G47" s="13">
         <v>0</v>
@@ -7786,162 +7802,147 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
-      <c r="B48" s="38" t="s">
-        <v>249</v>
+      <c r="B48" s="37" t="s">
+        <v>248</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="13">
         <v>2</v>
       </c>
-      <c r="E48" s="13">
-        <v>0.26035000000000003</v>
-      </c>
-      <c r="F48" s="13">
-        <v>0.69738800000000001</v>
+      <c r="E48" s="70">
+        <v>260.35000000000002</v>
+      </c>
+      <c r="F48" s="70">
+        <v>697.38800000000003</v>
       </c>
       <c r="G48" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="D49" s="21">
+      <c r="B49" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="D49" s="20">
         <v>3</v>
       </c>
-      <c r="E49" s="38">
-        <v>0.12266199999999999</v>
-      </c>
-      <c r="F49" s="38">
-        <v>0.16611600000000001</v>
-      </c>
-      <c r="G49" s="38">
+      <c r="E49" s="70">
+        <v>122.66200000000001</v>
+      </c>
+      <c r="F49" s="70">
+        <v>166.11600000000001</v>
+      </c>
+      <c r="G49" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="D50" s="21">
+      <c r="B50" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="D50" s="20">
         <v>3</v>
       </c>
-      <c r="E50" s="38">
-        <v>0.42570000000000002</v>
-      </c>
-      <c r="F50" s="38">
-        <v>0.16611600000000001</v>
-      </c>
-      <c r="G50" s="38">
+      <c r="E50" s="70">
+        <v>425.7</v>
+      </c>
+      <c r="F50" s="70">
+        <v>166.11600000000001</v>
+      </c>
+      <c r="G50" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="D51" s="21">
+      <c r="B51" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="D51" s="20">
         <v>4</v>
       </c>
-      <c r="E51" s="38">
-        <v>0.42570000000000002</v>
-      </c>
-      <c r="F51" s="38">
-        <v>0.16611600000000001</v>
-      </c>
-      <c r="G51" s="38">
+      <c r="E51" s="70">
+        <v>425.7</v>
+      </c>
+      <c r="F51" s="70">
+        <v>166.11600000000001</v>
+      </c>
+      <c r="G51" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="D52" s="21">
+      <c r="B52" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="D52" s="20">
         <v>4</v>
       </c>
-      <c r="E52" s="38">
-        <v>0.41097</v>
-      </c>
-      <c r="F52" s="38">
-        <v>0.19003</v>
-      </c>
-      <c r="G52" s="38">
+      <c r="E52" s="70">
+        <v>410.97</v>
+      </c>
+      <c r="F52" s="70">
+        <v>190.03</v>
+      </c>
+      <c r="G52" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="D53" s="21">
+      <c r="B53" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="D53" s="20">
         <v>4</v>
       </c>
-      <c r="E53" s="38">
-        <v>0.40881200000000001</v>
-      </c>
-      <c r="F53" s="38">
-        <v>0.21540000000000001</v>
-      </c>
-      <c r="G53" s="38">
+      <c r="E53" s="70">
+        <v>408.81200000000001</v>
+      </c>
+      <c r="F53" s="70">
+        <v>215.4</v>
+      </c>
+      <c r="G53" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="B54" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="13">
         <v>4</v>
       </c>
-      <c r="E54" s="13">
-        <v>0.48971199999999998</v>
-      </c>
-      <c r="F54" s="13">
-        <v>0.30480000000000002</v>
+      <c r="E54" s="70">
+        <v>489.71199999999999</v>
+      </c>
+      <c r="F54" s="70">
+        <v>304.8</v>
       </c>
       <c r="G54" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="D55" s="38">
+      <c r="B55" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="D55" s="37">
         <v>4</v>
       </c>
-      <c r="E55" s="38">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="F55" s="38">
-        <v>0.3</v>
-      </c>
-      <c r="G55" s="38">
+      <c r="E55" s="70">
+        <v>515</v>
+      </c>
+      <c r="F55" s="70">
+        <v>300</v>
+      </c>
+      <c r="G55" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="66" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
     <mergeCell ref="E44:G44"/>
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="F22:H22"/>
@@ -7958,6 +7959,21 @@
     <mergeCell ref="I32:K32"/>
     <mergeCell ref="L32:N32"/>
     <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -7978,8 +7994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4658AC4-6667-4045-B0FE-42E281567C35}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7988,86 +8004,86 @@
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
     <col min="6" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="31.7109375" customWidth="1"/>
+    <col min="9" max="9" width="37.5703125" customWidth="1"/>
     <col min="10" max="10" width="40.140625" customWidth="1"/>
-    <col min="11" max="11" width="29.140625" customWidth="1"/>
+    <col min="11" max="11" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108" t="s">
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114" t="s">
+        <v>249</v>
+      </c>
+      <c r="K1" s="114"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="106" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="60" t="s">
         <v>250</v>
       </c>
-      <c r="K1" s="108"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="61" t="s">
+      <c r="J2" s="60" t="s">
         <v>251</v>
       </c>
-      <c r="J2" s="61" t="s">
+      <c r="K2" s="60" t="s">
         <v>252</v>
       </c>
-      <c r="K2" s="61" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
+    </row>
+    <row r="3" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="37">
         <v>4</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="37">
         <v>2</v>
       </c>
-      <c r="F3" s="38">
-        <v>0</v>
-      </c>
-      <c r="G3" s="38">
+      <c r="F3" s="37">
+        <v>0</v>
+      </c>
+      <c r="G3" s="37">
         <v>1</v>
       </c>
-      <c r="H3" s="38">
-        <v>0</v>
-      </c>
-      <c r="I3" s="24" t="s">
+      <c r="H3" s="37">
+        <v>0</v>
+      </c>
+      <c r="I3" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="K3" s="24" t="s">
-        <v>264</v>
+      <c r="K3" s="23" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -8076,7 +8092,7 @@
       </c>
     </row>
     <row r="23" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J23" s="24"/>
+      <c r="J23" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8092,8 +8108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F55610B-D925-4735-AE3D-EBBD0AD81ACC}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8118,747 +8134,748 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
     </row>
     <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="111" t="s">
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="131" t="s">
+        <v>253</v>
+      </c>
+      <c r="O2" s="132"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="132"/>
+      <c r="S2" s="133"/>
+      <c r="AB2" s="121" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC2" s="122"/>
+      <c r="AD2" s="122"/>
+      <c r="AE2" s="122"/>
+      <c r="AF2" s="122"/>
+      <c r="AG2" s="123"/>
+    </row>
+    <row r="3" spans="1:33" s="28" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="134" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="135"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="115" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="116"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="54" t="s">
+        <v>245</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="N3" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="O3" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="P3" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q3" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="R3" s="137" t="s">
+        <v>118</v>
+      </c>
+      <c r="S3" s="137"/>
+      <c r="AB3" s="124"/>
+      <c r="AC3" s="125"/>
+      <c r="AD3" s="125"/>
+      <c r="AE3" s="125"/>
+      <c r="AF3" s="125"/>
+      <c r="AG3" s="126"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B4" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" s="37">
+        <v>2</v>
+      </c>
+      <c r="E4" s="37">
+        <v>4</v>
+      </c>
+      <c r="F4" s="37">
+        <f>260.35</f>
+        <v>260.35000000000002</v>
+      </c>
+      <c r="G4" s="37">
+        <f>693.42</f>
+        <v>693.42</v>
+      </c>
+      <c r="H4" s="37">
+        <v>0</v>
+      </c>
+      <c r="I4" s="70">
+        <v>410.97</v>
+      </c>
+      <c r="J4" s="70">
+        <v>190.03</v>
+      </c>
+      <c r="K4" s="37">
+        <v>0</v>
+      </c>
+      <c r="L4" s="71">
+        <v>503.4</v>
+      </c>
+      <c r="M4" s="17">
+        <f>140</f>
+        <v>140</v>
+      </c>
+      <c r="N4" s="62"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="AB4" s="124"/>
+      <c r="AC4" s="125"/>
+      <c r="AD4" s="125"/>
+      <c r="AE4" s="125"/>
+      <c r="AF4" s="125"/>
+      <c r="AG4" s="126"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="37">
+        <v>4</v>
+      </c>
+      <c r="E5" s="37">
+        <v>1</v>
+      </c>
+      <c r="F5" s="37">
+        <f>515.112</f>
+        <v>515.11199999999997</v>
+      </c>
+      <c r="G5" s="37">
+        <f>300</f>
+        <v>300</v>
+      </c>
+      <c r="H5" s="37">
+        <v>0</v>
+      </c>
+      <c r="I5" s="37">
+        <v>0</v>
+      </c>
+      <c r="J5" s="37">
+        <v>0</v>
+      </c>
+      <c r="K5" s="37">
+        <v>0</v>
+      </c>
+      <c r="L5" s="70">
+        <v>300</v>
+      </c>
+      <c r="M5" s="37">
+        <f>400</f>
+        <v>400</v>
+      </c>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="AB5" s="124"/>
+      <c r="AC5" s="125"/>
+      <c r="AD5" s="125"/>
+      <c r="AE5" s="125"/>
+      <c r="AF5" s="125"/>
+      <c r="AG5" s="126"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AB6" s="124"/>
+      <c r="AC6" s="125"/>
+      <c r="AD6" s="125"/>
+      <c r="AE6" s="125"/>
+      <c r="AF6" s="125"/>
+      <c r="AG6" s="126"/>
+    </row>
+    <row r="7" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="AB7" s="124"/>
+      <c r="AC7" s="125"/>
+      <c r="AD7" s="125"/>
+      <c r="AE7" s="125"/>
+      <c r="AF7" s="125"/>
+      <c r="AG7" s="126"/>
+    </row>
+    <row r="8" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="130" t="s">
         <v>254</v>
       </c>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="113"/>
-      <c r="AB2" s="117" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC2" s="118"/>
-      <c r="AD2" s="118"/>
-      <c r="AE2" s="118"/>
-      <c r="AF2" s="118"/>
-      <c r="AG2" s="119"/>
-    </row>
-    <row r="3" spans="1:33" s="29" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="O8" s="130"/>
+      <c r="P8" s="130"/>
+      <c r="Q8" s="130"/>
+      <c r="R8" s="130"/>
+      <c r="AB8" s="124"/>
+      <c r="AC8" s="125"/>
+      <c r="AD8" s="125"/>
+      <c r="AE8" s="125"/>
+      <c r="AF8" s="125"/>
+      <c r="AG8" s="126"/>
+    </row>
+    <row r="9" spans="1:33" s="28" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B9" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C9" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D9" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E9" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="109" t="s">
+      <c r="F9" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="127"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="128" t="s">
+      <c r="G9" s="135"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="129"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="55" t="s">
-        <v>245</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="N3" s="62" t="s">
+      <c r="J9" s="116"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="O3" s="62" t="s">
+      <c r="N9" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="P3" s="62" t="s">
+      <c r="O9" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="Q3" s="32" t="s">
+      <c r="P9" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="R3" s="131" t="s">
+      <c r="Q9" s="134" t="s">
+        <v>117</v>
+      </c>
+      <c r="R9" s="136"/>
+      <c r="AB9" s="124"/>
+      <c r="AC9" s="125"/>
+      <c r="AD9" s="125"/>
+      <c r="AE9" s="125"/>
+      <c r="AF9" s="125"/>
+      <c r="AG9" s="126"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" s="37">
+        <v>2</v>
+      </c>
+      <c r="E10" s="37">
+        <v>4</v>
+      </c>
+      <c r="F10" s="37">
+        <f>260.35</f>
+        <v>260.35000000000002</v>
+      </c>
+      <c r="G10" s="37">
+        <f>693.42</f>
+        <v>693.42</v>
+      </c>
+      <c r="H10" s="37">
+        <v>0</v>
+      </c>
+      <c r="I10" s="70">
+        <v>410.97</v>
+      </c>
+      <c r="J10" s="70">
+        <v>190.03</v>
+      </c>
+      <c r="K10" s="37">
+        <v>0</v>
+      </c>
+      <c r="L10" s="37">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="M10" s="23"/>
+      <c r="AB10" s="124"/>
+      <c r="AC10" s="125"/>
+      <c r="AD10" s="125"/>
+      <c r="AE10" s="125"/>
+      <c r="AF10" s="125"/>
+      <c r="AG10" s="126"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="37"/>
+      <c r="B11" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11" s="37">
+        <v>4</v>
+      </c>
+      <c r="E11" s="37">
+        <v>1</v>
+      </c>
+      <c r="F11" s="37">
+        <f>515.112</f>
+        <v>515.11199999999997</v>
+      </c>
+      <c r="G11" s="37">
+        <f>300</f>
+        <v>300</v>
+      </c>
+      <c r="H11" s="37">
+        <v>0</v>
+      </c>
+      <c r="I11" s="37">
+        <v>0</v>
+      </c>
+      <c r="J11" s="37">
+        <v>0</v>
+      </c>
+      <c r="K11" s="37">
+        <v>0</v>
+      </c>
+      <c r="L11" s="37">
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="AB11" s="124"/>
+      <c r="AC11" s="125"/>
+      <c r="AD11" s="125"/>
+      <c r="AE11" s="125"/>
+      <c r="AF11" s="125"/>
+      <c r="AG11" s="126"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="Q12" s="37"/>
+      <c r="AB12" s="124"/>
+      <c r="AC12" s="125"/>
+      <c r="AD12" s="125"/>
+      <c r="AE12" s="125"/>
+      <c r="AF12" s="125"/>
+      <c r="AG12" s="126"/>
+    </row>
+    <row r="13" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="114"/>
+      <c r="O13" s="114"/>
+      <c r="P13" s="114"/>
+      <c r="Q13" s="114"/>
+      <c r="R13" s="114"/>
+      <c r="S13" s="114"/>
+      <c r="T13" s="114"/>
+      <c r="U13" s="114"/>
+      <c r="V13" s="114"/>
+      <c r="W13" s="114"/>
+      <c r="X13" s="114"/>
+      <c r="Y13" s="114"/>
+      <c r="AB13" s="127"/>
+      <c r="AC13" s="128"/>
+      <c r="AD13" s="128"/>
+      <c r="AE13" s="128"/>
+      <c r="AF13" s="128"/>
+      <c r="AG13" s="129"/>
+    </row>
+    <row r="14" spans="1:33" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="110"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="111"/>
+      <c r="S14" s="112"/>
+      <c r="T14" s="131" t="s">
+        <v>255</v>
+      </c>
+      <c r="U14" s="132"/>
+      <c r="V14" s="132"/>
+      <c r="W14" s="132"/>
+      <c r="X14" s="132"/>
+      <c r="Y14" s="133"/>
+      <c r="Z14" s="63"/>
+      <c r="AA14" s="63"/>
+    </row>
+    <row r="15" spans="1:33" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="97" t="s">
+        <v>256</v>
+      </c>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="115" t="s">
+        <v>257</v>
+      </c>
+      <c r="J15" s="116"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="118" t="s">
+        <v>258</v>
+      </c>
+      <c r="M15" s="119"/>
+      <c r="N15" s="120"/>
+      <c r="O15" s="118" t="s">
+        <v>259</v>
+      </c>
+      <c r="P15" s="119"/>
+      <c r="Q15" s="120"/>
+      <c r="R15" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="S15" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="T15" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="U15" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="V15" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="W15" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="X15" s="134" t="s">
         <v>118</v>
       </c>
-      <c r="S3" s="131"/>
-      <c r="AB3" s="120"/>
-      <c r="AC3" s="121"/>
-      <c r="AD3" s="121"/>
-      <c r="AE3" s="121"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="122"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B4" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="D4" s="38">
-        <v>2</v>
-      </c>
-      <c r="E4" s="38">
-        <v>4</v>
-      </c>
-      <c r="F4" s="38">
-        <f>0.26035</f>
-        <v>0.26035000000000003</v>
-      </c>
-      <c r="G4" s="38">
-        <f>0.69342</f>
-        <v>0.69342000000000004</v>
-      </c>
-      <c r="H4" s="38">
-        <v>0</v>
-      </c>
-      <c r="I4" s="38">
-        <v>0.41097</v>
-      </c>
-      <c r="J4" s="38">
-        <v>0.19003</v>
-      </c>
-      <c r="K4" s="38">
-        <v>0</v>
-      </c>
-      <c r="L4" s="18">
-        <v>0.50339999999999996</v>
-      </c>
-      <c r="M4" s="18">
-        <f>140000</f>
-        <v>140000</v>
-      </c>
-      <c r="N4" s="63"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="AB4" s="120"/>
-      <c r="AC4" s="121"/>
-      <c r="AD4" s="121"/>
-      <c r="AE4" s="121"/>
-      <c r="AF4" s="121"/>
-      <c r="AG4" s="122"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="D5" s="38">
-        <v>4</v>
-      </c>
-      <c r="E5" s="38">
-        <v>1</v>
-      </c>
-      <c r="F5" s="38">
-        <f>0.515112</f>
-        <v>0.51511200000000001</v>
-      </c>
-      <c r="G5" s="38">
-        <f>0.3</f>
-        <v>0.3</v>
-      </c>
-      <c r="H5" s="38">
-        <v>0</v>
-      </c>
-      <c r="I5" s="38">
-        <v>0</v>
-      </c>
-      <c r="J5" s="38">
-        <v>0</v>
-      </c>
-      <c r="K5" s="38">
-        <v>0</v>
-      </c>
-      <c r="L5" s="38">
-        <v>0.3</v>
-      </c>
-      <c r="M5" s="38">
-        <f>400000</f>
-        <v>400000</v>
-      </c>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="AB5" s="120"/>
-      <c r="AC5" s="121"/>
-      <c r="AD5" s="121"/>
-      <c r="AE5" s="121"/>
-      <c r="AF5" s="121"/>
-      <c r="AG5" s="122"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AB6" s="120"/>
-      <c r="AC6" s="121"/>
-      <c r="AD6" s="121"/>
-      <c r="AE6" s="121"/>
-      <c r="AF6" s="121"/>
-      <c r="AG6" s="122"/>
-    </row>
-    <row r="7" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="107" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="108"/>
-      <c r="AB7" s="120"/>
-      <c r="AC7" s="121"/>
-      <c r="AD7" s="121"/>
-      <c r="AE7" s="121"/>
-      <c r="AF7" s="121"/>
-      <c r="AG7" s="122"/>
-    </row>
-    <row r="8" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="99"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="126" t="s">
-        <v>255</v>
-      </c>
-      <c r="O8" s="126"/>
-      <c r="P8" s="126"/>
-      <c r="Q8" s="126"/>
-      <c r="R8" s="126"/>
-      <c r="AB8" s="120"/>
-      <c r="AC8" s="121"/>
-      <c r="AD8" s="121"/>
-      <c r="AE8" s="121"/>
-      <c r="AF8" s="121"/>
-      <c r="AG8" s="122"/>
-    </row>
-    <row r="9" spans="1:33" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="s">
+      <c r="Y15" s="136"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+    </row>
+    <row r="18" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="113" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="114"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="114"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="114"/>
+      <c r="N18" s="114"/>
+      <c r="O18" s="114"/>
+      <c r="P18" s="114"/>
+      <c r="Q18" s="114"/>
+    </row>
+    <row r="19" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="64"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="131" t="s">
+        <v>253</v>
+      </c>
+      <c r="M19" s="132"/>
+      <c r="N19" s="132"/>
+      <c r="O19" s="132"/>
+      <c r="P19" s="132"/>
+      <c r="Q19" s="133"/>
+    </row>
+    <row r="20" spans="1:20" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B20" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C20" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D20" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E20" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="109" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="127"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="128" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="129"/>
-      <c r="K9" s="130"/>
-      <c r="L9" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="M9" s="33" t="s">
+      <c r="F20" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="97"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="118" t="s">
+        <v>155</v>
+      </c>
+      <c r="J20" s="119"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="N9" s="33" t="s">
+      <c r="M20" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="O9" s="33" t="s">
+      <c r="N20" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="P9" s="34" t="s">
+      <c r="O20" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="Q9" s="109" t="s">
-        <v>117</v>
-      </c>
-      <c r="R9" s="110"/>
-      <c r="AB9" s="120"/>
-      <c r="AC9" s="121"/>
-      <c r="AD9" s="121"/>
-      <c r="AE9" s="121"/>
-      <c r="AF9" s="121"/>
-      <c r="AG9" s="122"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>240</v>
-      </c>
-      <c r="D10" s="38">
-        <v>2</v>
-      </c>
-      <c r="E10" s="38">
-        <v>4</v>
-      </c>
-      <c r="F10" s="38">
-        <f>0.26035</f>
-        <v>0.26035000000000003</v>
-      </c>
-      <c r="G10" s="38">
-        <f>0.69342</f>
-        <v>0.69342000000000004</v>
-      </c>
-      <c r="H10" s="38">
-        <v>0</v>
-      </c>
-      <c r="I10" s="38">
-        <v>0.41097</v>
-      </c>
-      <c r="J10" s="38">
-        <v>0.19003</v>
-      </c>
-      <c r="K10" s="38">
-        <v>0</v>
-      </c>
-      <c r="L10" s="38">
-        <f>6000</f>
-        <v>6000</v>
-      </c>
-      <c r="M10" s="24"/>
-      <c r="AB10" s="120"/>
-      <c r="AC10" s="121"/>
-      <c r="AD10" s="121"/>
-      <c r="AE10" s="121"/>
-      <c r="AF10" s="121"/>
-      <c r="AG10" s="122"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>241</v>
-      </c>
-      <c r="D11" s="38">
-        <v>4</v>
-      </c>
-      <c r="E11" s="38">
-        <v>1</v>
-      </c>
-      <c r="F11" s="38">
-        <f>0.515112</f>
-        <v>0.51511200000000001</v>
-      </c>
-      <c r="G11" s="38">
-        <f>0.3</f>
-        <v>0.3</v>
-      </c>
-      <c r="H11" s="38">
-        <v>0</v>
-      </c>
-      <c r="I11" s="38">
-        <v>0</v>
-      </c>
-      <c r="J11" s="38">
-        <v>0</v>
-      </c>
-      <c r="K11" s="38">
-        <v>0</v>
-      </c>
-      <c r="L11" s="38">
-        <f>10000</f>
-        <v>10000</v>
-      </c>
-      <c r="AB11" s="120"/>
-      <c r="AC11" s="121"/>
-      <c r="AD11" s="121"/>
-      <c r="AE11" s="121"/>
-      <c r="AF11" s="121"/>
-      <c r="AG11" s="122"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="Q12" s="38"/>
-      <c r="AB12" s="120"/>
-      <c r="AC12" s="121"/>
-      <c r="AD12" s="121"/>
-      <c r="AE12" s="121"/>
-      <c r="AF12" s="121"/>
-      <c r="AG12" s="122"/>
-    </row>
-    <row r="13" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="107" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="108"/>
-      <c r="N13" s="108"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="108"/>
-      <c r="R13" s="108"/>
-      <c r="S13" s="108"/>
-      <c r="T13" s="108"/>
-      <c r="U13" s="108"/>
-      <c r="V13" s="108"/>
-      <c r="W13" s="108"/>
-      <c r="X13" s="108"/>
-      <c r="Y13" s="108"/>
-      <c r="AB13" s="123"/>
-      <c r="AC13" s="124"/>
-      <c r="AD13" s="124"/>
-      <c r="AE13" s="124"/>
-      <c r="AF13" s="124"/>
-      <c r="AG13" s="125"/>
-    </row>
-    <row r="14" spans="1:33" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="101"/>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
-      <c r="M14" s="102"/>
-      <c r="N14" s="102"/>
-      <c r="O14" s="102"/>
-      <c r="P14" s="102"/>
-      <c r="Q14" s="102"/>
-      <c r="R14" s="102"/>
-      <c r="S14" s="103"/>
-      <c r="T14" s="111" t="s">
-        <v>256</v>
-      </c>
-      <c r="U14" s="112"/>
-      <c r="V14" s="112"/>
-      <c r="W14" s="112"/>
-      <c r="X14" s="112"/>
-      <c r="Y14" s="113"/>
-      <c r="Z14" s="64"/>
-      <c r="AA14" s="64"/>
-    </row>
-    <row r="15" spans="1:33" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="67" t="s">
-        <v>257</v>
-      </c>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="128" t="s">
-        <v>258</v>
-      </c>
-      <c r="J15" s="129"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="114" t="s">
-        <v>259</v>
-      </c>
-      <c r="M15" s="115"/>
-      <c r="N15" s="116"/>
-      <c r="O15" s="114" t="s">
-        <v>260</v>
-      </c>
-      <c r="P15" s="115"/>
-      <c r="Q15" s="116"/>
-      <c r="R15" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="S15" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="T15" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="U15" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="V15" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="W15" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="X15" s="109" t="s">
+      <c r="P20" s="134" t="s">
         <v>118</v>
       </c>
-      <c r="Y15" s="110"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-    </row>
-    <row r="18" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="107" t="s">
-        <v>146</v>
-      </c>
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="108"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="108"/>
-      <c r="M18" s="108"/>
-      <c r="N18" s="108"/>
-      <c r="O18" s="108"/>
-      <c r="P18" s="108"/>
-      <c r="Q18" s="108"/>
-    </row>
-    <row r="19" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="65"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="111" t="s">
-        <v>254</v>
-      </c>
-      <c r="M19" s="112"/>
-      <c r="N19" s="112"/>
-      <c r="O19" s="112"/>
-      <c r="P19" s="112"/>
-      <c r="Q19" s="113"/>
-    </row>
-    <row r="20" spans="1:20" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="114" t="s">
-        <v>155</v>
-      </c>
-      <c r="J20" s="115"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="M20" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="N20" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="O20" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="P20" s="109" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q20" s="110"/>
+      <c r="Q20" s="136"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="A18:Q18"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="P20:Q20"/>
     <mergeCell ref="AB2:AG13"/>
     <mergeCell ref="A8:M8"/>
     <mergeCell ref="N8:R8"/>
@@ -8874,12 +8891,11 @@
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="N2:S2"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="A18:Q18"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:Q15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8902,501 +8918,501 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="104" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="F1" s="90" t="s">
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="F1" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="G1" s="92"/>
-      <c r="I1" s="90" t="s">
+      <c r="G1" s="79"/>
+      <c r="I1" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="92"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="79"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="I2" s="132" t="s">
+      <c r="I2" s="138" t="s">
         <v>233</v>
       </c>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="F3" s="50" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="F3" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="F4" s="50" t="s">
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="F4" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
-      <c r="L4" s="132"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="138"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="F5" s="50" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="F5" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="I5" s="132"/>
-      <c r="J5" s="132"/>
-      <c r="K5" s="132"/>
-      <c r="L5" s="132"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="138"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="F6" s="50" t="s">
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="F6" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="132"/>
-      <c r="L6" s="132"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="138"/>
+      <c r="K6" s="138"/>
+      <c r="L6" s="138"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="50" t="s">
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="H7" s="18"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="F8" s="50" t="s">
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="F8" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="50" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="50" t="s">
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="H9" s="31"/>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="F10" s="50" t="s">
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="F10" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="G10" s="51" t="s">
+      <c r="G10" s="50" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="F11" s="50" t="s">
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="F11" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="G11" s="51" t="s">
+      <c r="G11" s="50" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="F12" s="50" t="s">
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="F12" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="50" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="F13" s="50" t="s">
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="F13" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="G13" s="51" t="s">
+      <c r="G13" s="50" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="F14" s="50" t="s">
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="F14" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="G14" s="51" t="s">
+      <c r="G14" s="50" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="F15" s="50" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="F15" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="50" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="F16" s="50" t="s">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="F16" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="G16" s="51" t="s">
+      <c r="G16" s="50" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="F17" s="50" t="s">
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="F17" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="G17" s="51" t="s">
+      <c r="G17" s="50" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="F18" s="50" t="s">
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="F18" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="50" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="F19" s="50" t="s">
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="F19" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="G19" s="51" t="s">
+      <c r="G19" s="50" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="F20" s="50" t="s">
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="F20" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="G20" s="51" t="s">
+      <c r="G20" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="F21" s="50" t="s">
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="F21" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="G21" s="51" t="s">
+      <c r="G21" s="50" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="F22" s="50" t="s">
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="F22" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="G22" s="52" t="s">
+      <c r="G22" s="51" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="F23" s="27" t="s">
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="F23" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="G23" s="52" t="s">
+      <c r="G23" s="51" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="F24" s="27" t="s">
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="F24" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="G24" s="52" t="s">
+      <c r="G24" s="51" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="F25" s="27" t="s">
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="F25" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="G25" s="52" t="s">
+      <c r="G25" s="51" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="F26" s="27" t="s">
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="F26" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="G26" s="52" t="s">
+      <c r="G26" s="51" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="F27" s="27" t="s">
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="F27" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="G27" s="52" t="s">
+      <c r="G27" s="51" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="F28" s="27" t="s">
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="F28" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="G28" s="52" t="s">
+      <c r="G28" s="51" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="F29" s="27" t="s">
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="F29" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="G29" s="52" t="s">
+      <c r="G29" s="51" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="F30" s="27" t="s">
+      <c r="A30" s="49"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="F30" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="G30" s="52" t="s">
+      <c r="G30" s="51" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="F31" s="27" t="s">
+      <c r="A31" s="49"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="F31" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="G31" s="52" t="s">
+      <c r="G31" s="51" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="F32" s="27" t="s">
+      <c r="A32" s="49"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="F32" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="G32" s="52" t="s">
+      <c r="G32" s="51" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="50"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="F33" s="27" t="s">
+      <c r="A33" s="49"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="F33" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="G33" s="52" t="s">
+      <c r="G33" s="51" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="50"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="F34" s="27" t="s">
+      <c r="A34" s="49"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="F34" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="G34" s="52" t="s">
+      <c r="G34" s="51" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="50"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="F35" s="27" t="s">
+      <c r="A35" s="49"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="F35" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="G35" s="52" t="s">
+      <c r="G35" s="51" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="50"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="F36" s="27" t="s">
+      <c r="A36" s="49"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="F36" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="G36" s="52" t="s">
+      <c r="G36" s="51" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="50"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="F37" s="27" t="s">
+      <c r="A37" s="49"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="F37" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="G37" s="52" t="s">
+      <c r="G37" s="51" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="50"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
-      <c r="F38" s="27" t="s">
+      <c r="A38" s="49"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="F38" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="G38" s="52" t="s">
+      <c r="G38" s="51" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="50"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="50"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="50"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="50"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/mbs-EP-v.1.0.2/Excel Files/mcpherson_2d/mcpherson_2d.xlsx
+++ b/mbs-EP-v.1.0.2/Excel Files/mcpherson_2d/mcpherson_2d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.2\Excel Files\mcpherson_2d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536AEF19-A1F9-4FDE-B5AB-C90068EBB614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D8AE02-1F71-4334-83A0-5CB035FEB9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="265">
   <si>
     <t>Mass</t>
   </si>
@@ -876,10 +876,13 @@
     <t>MMKS</t>
   </si>
   <si>
-    <t>@(x) -(0.01*exp(-3*x)*cos(30*x))*10^3</t>
-  </si>
-  <si>
-    <t>@(x)0</t>
+    <t>@(x)sin(x)</t>
+  </si>
+  <si>
+    <t>@(x)cos(x)</t>
+  </si>
+  <si>
+    <t>@(x)-sin(x)</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1519,6 +1522,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1953,7 +1957,7 @@
   <dimension ref="B2:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1995,7 +1999,7 @@
       </c>
       <c r="C3" s="76"/>
       <c r="D3" s="40">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E3" s="40" t="s">
         <v>22</v>
@@ -2023,7 +2027,7 @@
       </c>
       <c r="C4" s="76"/>
       <c r="D4" s="40">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E4" s="40" t="s">
         <v>22</v>
@@ -2932,7 +2936,7 @@
   <dimension ref="A1:AK196"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+      <selection activeCell="N14" sqref="N14:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6710,8 +6714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE66"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N52" sqref="N52"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7992,10 +7996,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4658AC4-6667-4045-B0FE-42E281567C35}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8057,42 +8061,42 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3">
         <v>4</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" s="37">
-        <v>0</v>
-      </c>
-      <c r="G3" s="37">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="37">
-        <v>0</v>
-      </c>
-      <c r="I3" s="23" t="s">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="139" t="s">
         <v>262</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="139" t="s">
         <v>263</v>
       </c>
-      <c r="K3" s="23" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H10" t="s">
+      <c r="K3" s="139" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J23" s="23"/>
+    <row r="21" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J21" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8109,7 +8113,7 @@
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8320,7 +8324,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="37">
-        <v>0</v>
+        <v>515.11199999999997</v>
       </c>
       <c r="J5" s="37">
         <v>0</v>
@@ -8536,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="37">
-        <v>0</v>
+        <v>515.11199999999997</v>
       </c>
       <c r="J11" s="37">
         <v>0</v>
